--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1,17 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\03_Estudos\Trybe\Projetos\sd-09-mysql-one-for-all\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5828F563-D19B-4157-9998-F7F149E4CED5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Normalized" sheetId="5" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="74">
   <si>
     <t>usuario_id</t>
   </si>
@@ -128,33 +138,125 @@
   </si>
   <si>
     <t>"Thang Of Thunder", "Words Of Her Life", "Without My Streets"</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>Soul For Us</t>
+  </si>
+  <si>
+    <t>Magic Circus</t>
+  </si>
+  <si>
+    <t>Diamond Power</t>
+  </si>
+  <si>
+    <t>Thang Of Thunder</t>
+  </si>
+  <si>
+    <t>Home Forever</t>
+  </si>
+  <si>
+    <t>Words Of Her Life</t>
+  </si>
+  <si>
+    <t>Reflections Of Magic</t>
+  </si>
+  <si>
+    <t>Honey, Let's Be Silly</t>
+  </si>
+  <si>
+    <t>Troubles Of My Inner Fire</t>
+  </si>
+  <si>
+    <t>Dance With Her Own</t>
+  </si>
+  <si>
+    <t>Without My Streets</t>
+  </si>
+  <si>
+    <t>Celebration Of More</t>
+  </si>
+  <si>
+    <t>followed_by</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>albums</t>
+  </si>
+  <si>
+    <t>song_id</t>
+  </si>
+  <si>
+    <t>Time Fireworks</t>
+  </si>
+  <si>
+    <t>Honey, So Do I</t>
+  </si>
+  <si>
+    <t>Sweetie, Let's Go Wild</t>
+  </si>
+  <si>
+    <t>She Knows</t>
+  </si>
+  <si>
+    <t>Fantasy For Me</t>
+  </si>
+  <si>
+    <t>Rock His Everything</t>
+  </si>
+  <si>
+    <t>songs</t>
+  </si>
+  <si>
+    <t>artists</t>
+  </si>
+  <si>
+    <t>plan_id</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>plans</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>listened_to</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
@@ -186,7 +288,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -362,126 +464,898 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+  </cellStyleXfs>
+  <cellXfs count="34">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-  </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="31">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor indexed="13"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right/>
+        <top style="thin">
+          <color indexed="11"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="11"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ff8eaadb"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd9e2f3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF8EAADB"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD9E2F3"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{069E0E51-AFF2-444A-ADF1-E25BCBBD1429}" name="Tabela1" displayName="Tabela1" ref="B3:E7" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B3:E7" xr:uid="{069E0E51-AFF2-444A-ADF1-E25BCBBD1429}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B62BBB9E-39C5-4FFE-9095-3B035E29539F}" name="user_id" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{46B0C90C-25D6-4C91-9C30-9720094FD1C5}" name="user" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{B9953262-78FD-4B9F-83E0-34202843BD6B}" name="age"/>
+    <tableColumn id="6" xr3:uid="{B0F6C587-0A0C-440A-AF8E-EA7E493B39FA}" name="plan_id"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{A9CCAD52-4C2E-4560-82C7-3C475B0B94C6}" name="Tabela2" displayName="Tabela2" ref="V3:W17" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+  <autoFilter ref="V3:W17" xr:uid="{A9CCAD52-4C2E-4560-82C7-3C475B0B94C6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1E5263E2-E462-4417-9AB7-A81967D63C94}" name="user_id" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{DB904EEA-E622-4B47-9010-D39EA065AAC4}" name="song_id" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{45ABCA9B-00FA-4249-AF34-66B6EB95BFCA}" name="Tabela3" displayName="Tabela3" ref="Y3:Z11" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="Y3:Z11" xr:uid="{45ABCA9B-00FA-4249-AF34-66B6EB95BFCA}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{42775408-993A-4C81-B893-67C077E45CB3}" name="artist_id" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{0DF5D651-3E43-445D-AC97-4E4CCBA8056C}" name="user_id" dataDxfId="19"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{B254A526-D3DB-4A4F-9980-01EE5F952A80}" name="Tabela4" displayName="Tabela4" ref="K3:L7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="K3:L7" xr:uid="{B254A526-D3DB-4A4F-9980-01EE5F952A80}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{CD3D6D00-39F0-48EC-9BD3-7EEABC602167}" name="artist_id" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{7DFB54AF-4514-48CC-85DA-E3C9405A43CB}" name="artist" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{74A4760B-4CEE-4D6D-8218-7D30664DCBA8}" name="Tabela5" displayName="Tabela5" ref="N3:P8" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="N3:P8" xr:uid="{74A4760B-4CEE-4D6D-8218-7D30664DCBA8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{B80D06D2-B914-4826-8C75-829DC2DAC942}" name="album_id" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{D1CFAFBC-D689-4451-92EB-8A30AEB543A1}" name="album" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{E6A10A4D-0502-4F86-A03F-1D0D79C8A83C}" name="artist_id" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{35990B87-8BAA-4DAB-B7DB-DDD738B6F984}" name="Tabela6" displayName="Tabela6" ref="R3:T21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="R3:T21" xr:uid="{35990B87-8BAA-4DAB-B7DB-DDD738B6F984}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{08E5E417-5310-4FA4-800F-B0ECBC87BDF0}" name="song_id" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{BD404FED-670A-42F7-B1EF-51E875C72BF0}" name="song" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{A99F2739-7C13-4EB3-88BC-8FBFB2F14AA1}" name="album_id" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6D4555EE-FFD1-4D36-8662-05999FBF3860}" name="Tabela7" displayName="Tabela7" ref="G3:I6" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="G3:I6" xr:uid="{6D4555EE-FFD1-4D36-8662-05999FBF3860}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FF607481-0AE0-46C8-8D91-9F73AD31D483}" name="plan_id" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8DF2847D-5419-484C-B663-B85BE692A9EF}" name="plan" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{E58ED579-30F2-49EC-A3A5-27255F9F5921}" name="price" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -683,7 +1557,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -702,7 +1576,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +1606,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +1632,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +1658,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +1684,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +1710,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +1736,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +1762,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +1788,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +1814,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,9 +1827,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -972,7 +1852,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -991,7 +1871,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1897,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1923,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1949,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1975,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +2001,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +2027,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +2053,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +2079,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +2105,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,9 +2118,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1254,7 +2140,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1273,7 +2159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +2189,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +2215,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +2241,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +2267,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +2293,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +2319,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +2345,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +2371,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +2397,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,172 +2410,182 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4688" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1406" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="38.44140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.88671875" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:9" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="3">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s" s="6">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9">
         <v>23</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" t="s" s="10">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" t="s" s="12">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1">
+    <row r="3" spans="1:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15">
         <v>7.99</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="18">
         <v>2</v>
       </c>
-      <c r="I3" t="s" s="19">
+      <c r="I3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
+    <row r="4" spans="1:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="9">
         <v>5.99</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="11">
         <v>3</v>
       </c>
-      <c r="I4" t="s" s="12">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="39" customHeight="1">
+    <row r="5" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="15">
         <v>45</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" t="s" s="16">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18">
         <v>4</v>
       </c>
-      <c r="I5" t="s" s="19">
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="38.1" customHeight="1">
+    <row r="6" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1700,17 +2596,17 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="24"/>
@@ -1719,17 +2615,17 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" ht="26.55" customHeight="1">
+    <row r="8" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="26">
+      <c r="D8" s="26" t="s">
         <v>28</v>
       </c>
       <c r="E8" s="24"/>
@@ -1738,17 +2634,17 @@
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="14">
+      <c r="B9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C9" t="s" s="14">
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s" s="27">
+      <c r="D9" s="27" t="s">
         <v>30</v>
       </c>
       <c r="E9" s="25"/>
@@ -1757,17 +2653,17 @@
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" ht="26.55" customHeight="1">
+    <row r="10" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" t="s" s="8">
+      <c r="B10" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C10" t="s" s="8">
+      <c r="C10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D10" t="s" s="26">
+      <c r="D10" s="26" t="s">
         <v>33</v>
       </c>
       <c r="E10" s="24"/>
@@ -1776,17 +2672,17 @@
       <c r="H10" s="22"/>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" ht="39.55" customHeight="1">
+    <row r="11" spans="1:9" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" t="s" s="14">
+      <c r="B11" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C11" t="s" s="14">
+      <c r="C11" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="D11" t="s" s="27">
+      <c r="D11" s="27" t="s">
         <v>36</v>
       </c>
       <c r="E11" s="25"/>
@@ -1795,17 +2691,17 @@
       <c r="H11" s="22"/>
       <c r="I11" s="22"/>
     </row>
-    <row r="12" ht="26.55" customHeight="1">
+    <row r="12" spans="1:9" ht="26.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="8">
+      <c r="B12" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="C12" t="s" s="8">
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s" s="26">
+      <c r="D12" s="26" t="s">
         <v>38</v>
       </c>
       <c r="E12" s="24"/>
@@ -1816,9 +2712,644 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD4964C7-CA1C-4E34-9A3A-622C92827FE4}">
+  <dimension ref="B2:Z21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Y4" sqref="Y4:Y11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="3.44140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" style="1" customWidth="1"/>
+    <col min="3" max="4" width="8.88671875" style="1"/>
+    <col min="5" max="5" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="4.33203125" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.33203125" style="1" customWidth="1"/>
+    <col min="14" max="14" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="4" style="1" customWidth="1"/>
+    <col min="18" max="18" width="9.88671875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="23.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.44140625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.88671875" style="1" customWidth="1"/>
+    <col min="24" max="24" width="3.5546875" style="1" customWidth="1"/>
+    <col min="25" max="25" width="10.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="3.88671875" style="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33"/>
+      <c r="G2" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="K2" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="L2" s="33"/>
+      <c r="N2" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="32"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="32"/>
+      <c r="T2" s="33"/>
+      <c r="V2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="W2" s="33"/>
+      <c r="Y2" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="Z2" s="33"/>
+    </row>
+    <row r="3" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="Z3" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="7">
+        <v>1</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="9">
+        <v>23</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1">
+        <v>1</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" s="29">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>1</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1</v>
+      </c>
+      <c r="W4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="13">
+        <v>2</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="15">
+        <v>35</v>
+      </c>
+      <c r="E5" s="15">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I5" s="30">
+        <v>7.99</v>
+      </c>
+      <c r="K5" s="1">
+        <v>2</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1</v>
+      </c>
+      <c r="W5" s="1">
+        <v>6</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7">
+        <v>3</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="9">
+        <v>20</v>
+      </c>
+      <c r="E6" s="9">
+        <v>3</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="29">
+        <v>5.99</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N6" s="1">
+        <v>3</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>3</v>
+      </c>
+      <c r="S6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>14</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="13">
+        <v>4</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="15">
+        <v>45</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1">
+        <v>4</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="N7" s="1">
+        <v>4</v>
+      </c>
+      <c r="O7" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="P7" s="1">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>4</v>
+      </c>
+      <c r="S7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="T7" s="1">
+        <v>2</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>16</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2</v>
+      </c>
+      <c r="R8" s="1">
+        <v>5</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T8" s="1">
+        <v>2</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2</v>
+      </c>
+      <c r="W8" s="1">
+        <v>13</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R9" s="1">
+        <v>6</v>
+      </c>
+      <c r="S9" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="T9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>2</v>
+      </c>
+      <c r="W9" s="1">
+        <v>17</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R10" s="1">
+        <v>7</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="T10" s="1">
+        <v>3</v>
+      </c>
+      <c r="V10" s="1">
+        <v>2</v>
+      </c>
+      <c r="W10" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R11" s="1">
+        <v>8</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="1">
+        <v>3</v>
+      </c>
+      <c r="V11" s="1">
+        <v>2</v>
+      </c>
+      <c r="W11" s="1">
+        <v>15</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R12" s="1">
+        <v>9</v>
+      </c>
+      <c r="S12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="T12" s="1">
+        <v>3</v>
+      </c>
+      <c r="V12" s="1">
+        <v>3</v>
+      </c>
+      <c r="W12" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R13" s="1">
+        <v>10</v>
+      </c>
+      <c r="S13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4</v>
+      </c>
+      <c r="V13" s="1">
+        <v>3</v>
+      </c>
+      <c r="W13" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R14" s="1">
+        <v>11</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="V14" s="1">
+        <v>3</v>
+      </c>
+      <c r="W14" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R15" s="1">
+        <v>12</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="1">
+        <v>4</v>
+      </c>
+      <c r="V15" s="1">
+        <v>4</v>
+      </c>
+      <c r="W15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:26" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R16" s="1">
+        <v>13</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="T16" s="1">
+        <v>4</v>
+      </c>
+      <c r="V16" s="1">
+        <v>4</v>
+      </c>
+      <c r="W16" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="18:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R17" s="1">
+        <v>14</v>
+      </c>
+      <c r="S17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="T17" s="1">
+        <v>4</v>
+      </c>
+      <c r="V17" s="1">
+        <v>4</v>
+      </c>
+      <c r="W17" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="18:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R18" s="1">
+        <v>15</v>
+      </c>
+      <c r="S18" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="18:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R19" s="1">
+        <v>16</v>
+      </c>
+      <c r="S19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="T19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="18:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R20" s="1">
+        <v>17</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="18:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="R21" s="1">
+        <v>18</v>
+      </c>
+      <c r="S21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="R2:T2"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="V2:W2"/>
+    <mergeCell ref="Y2:Z2"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="N2:P2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+  <tableParts count="7">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -247,7 +247,7 @@
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="#,##0.00"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -276,18 +276,6 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="10">
@@ -408,7 +396,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -489,7 +477,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -537,32 +525,16 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -692,8 +664,8 @@
   </sheetPr>
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C8" activeCellId="0" sqref="C8"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N16" activeCellId="1" sqref="L3:L10 N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -988,11 +960,11 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L18" activeCellId="0" sqref="L18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L3" activeCellId="0" sqref="L3:L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.51"/>
@@ -1119,7 +1091,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1183,7 +1155,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1200,7 +1172,7 @@
         <v>2</v>
       </c>
       <c r="L7" s="25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,7 +1180,7 @@
         <v>3</v>
       </c>
       <c r="L8" s="30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,14 +1192,14 @@
         <v>3</v>
       </c>
       <c r="L9" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="31" t="s">
         <v>45</v>
       </c>
       <c r="G10" s="19" t="s">
@@ -1239,7 +1211,7 @@
         <v>4</v>
       </c>
       <c r="L10" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1266,10 +1238,10 @@
       <c r="B12" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="G12" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="H12" s="34" t="s">
+      <c r="G12" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" s="32" t="s">
         <v>48</v>
       </c>
       <c r="I12" s="25" t="n">
@@ -1283,10 +1255,10 @@
       <c r="B13" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="G13" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="H13" s="36" t="s">
+      <c r="G13" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H13" s="33" t="s">
         <v>49</v>
       </c>
       <c r="I13" s="30" t="n">
@@ -1300,10 +1272,10 @@
       <c r="B14" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="G14" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="H14" s="34" t="s">
+      <c r="G14" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H14" s="32" t="s">
         <v>50</v>
       </c>
       <c r="I14" s="25" t="n">
@@ -1317,10 +1289,10 @@
       <c r="B15" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="G15" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="H15" s="36" t="s">
+      <c r="G15" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="H15" s="33" t="s">
         <v>51</v>
       </c>
       <c r="I15" s="30" t="n">
@@ -1334,10 +1306,10 @@
       <c r="B16" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="G16" s="33" t="n">
+      <c r="G16" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="H16" s="34" t="s">
+      <c r="H16" s="32" t="s">
         <v>52</v>
       </c>
       <c r="I16" s="25" t="n">
@@ -1351,10 +1323,10 @@
       <c r="B17" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="G17" s="35" t="n">
+      <c r="G17" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="H17" s="36" t="s">
+      <c r="H17" s="33" t="s">
         <v>53</v>
       </c>
       <c r="I17" s="30" t="n">
@@ -1368,10 +1340,10 @@
       <c r="B18" s="30" t="n">
         <v>17</v>
       </c>
-      <c r="G18" s="33" t="n">
+      <c r="G18" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="H18" s="34" t="s">
+      <c r="H18" s="32" t="s">
         <v>54</v>
       </c>
       <c r="I18" s="25" t="n">
@@ -1385,10 +1357,10 @@
       <c r="B19" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="G19" s="35" t="n">
+      <c r="G19" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="H19" s="36" t="s">
+      <c r="H19" s="33" t="s">
         <v>55</v>
       </c>
       <c r="I19" s="30" t="n">
@@ -1402,10 +1374,10 @@
       <c r="B20" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="G20" s="33" t="n">
+      <c r="G20" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="H20" s="34" t="s">
+      <c r="H20" s="32" t="s">
         <v>56</v>
       </c>
       <c r="I20" s="25" t="n">
@@ -1419,10 +1391,10 @@
       <c r="B21" s="25" t="n">
         <v>16</v>
       </c>
-      <c r="G21" s="35" t="n">
+      <c r="G21" s="33" t="n">
         <v>10</v>
       </c>
-      <c r="H21" s="36" t="s">
+      <c r="H21" s="33" t="s">
         <v>57</v>
       </c>
       <c r="I21" s="30" t="n">
@@ -1436,10 +1408,10 @@
       <c r="B22" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="G22" s="33" t="n">
+      <c r="G22" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="H22" s="34" t="s">
+      <c r="H22" s="32" t="s">
         <v>58</v>
       </c>
       <c r="I22" s="25" t="n">
@@ -1453,10 +1425,10 @@
       <c r="B23" s="25" t="n">
         <v>11</v>
       </c>
-      <c r="G23" s="35" t="n">
+      <c r="G23" s="33" t="n">
         <v>12</v>
       </c>
-      <c r="H23" s="36" t="s">
+      <c r="H23" s="33" t="s">
         <v>59</v>
       </c>
       <c r="I23" s="30" t="n">
@@ -1470,10 +1442,10 @@
       <c r="B24" s="30" t="n">
         <v>18</v>
       </c>
-      <c r="G24" s="33" t="n">
+      <c r="G24" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="H24" s="34" t="s">
+      <c r="H24" s="32" t="s">
         <v>60</v>
       </c>
       <c r="I24" s="25" t="n">
@@ -1481,10 +1453,10 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G25" s="35" t="n">
+      <c r="G25" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="H25" s="36" t="s">
+      <c r="H25" s="33" t="s">
         <v>61</v>
       </c>
       <c r="I25" s="30" t="n">
@@ -1492,10 +1464,10 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G26" s="33" t="n">
+      <c r="G26" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="H26" s="34" t="s">
+      <c r="H26" s="32" t="s">
         <v>62</v>
       </c>
       <c r="I26" s="25" t="n">
@@ -1503,10 +1475,10 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G27" s="35" t="n">
+      <c r="G27" s="33" t="n">
         <v>16</v>
       </c>
-      <c r="H27" s="36" t="s">
+      <c r="H27" s="33" t="s">
         <v>63</v>
       </c>
       <c r="I27" s="30" t="n">
@@ -1514,21 +1486,21 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G28" s="37" t="n">
+      <c r="G28" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="H28" s="38" t="s">
+      <c r="H28" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="I28" s="39" t="s">
+      <c r="I28" s="35" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="G29" s="40" t="n">
+      <c r="G29" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="H29" s="36" t="s">
+      <c r="H29" s="33" t="s">
         <v>66</v>
       </c>
       <c r="I29" s="30" t="n">
@@ -1561,10 +1533,10 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J18" activeCellId="0" sqref="J18"/>
+      <selection pane="topLeft" activeCell="K20" activeCellId="1" sqref="L3:L10 K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.61"/>
@@ -1573,7 +1545,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="3.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="9.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="3.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="10.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="16.68"/>
@@ -1608,7 +1580,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1643,10 +1615,10 @@
       <c r="D3" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="F3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="25" t="n">
@@ -1675,10 +1647,10 @@
       <c r="D4" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="30" t="n">
@@ -1707,10 +1679,10 @@
       <c r="D5" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="25" t="n">
@@ -1736,13 +1708,13 @@
       <c r="C6" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="30" t="n">
@@ -1759,10 +1731,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="25" t="n">
@@ -1779,10 +1751,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="35" t="n">
+      <c r="F8" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="33" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="30" t="n">
@@ -1795,10 +1767,10 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="25" t="n">
@@ -1806,7 +1778,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="39" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1815,10 +1787,10 @@
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="35" t="n">
+      <c r="F10" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="30" t="n">
@@ -1830,7 +1802,7 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
+      <c r="A11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -1839,10 +1811,10 @@
       <c r="C11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="32" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="25" t="n">
@@ -1856,19 +1828,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="n">
+      <c r="A12" s="33" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="44" t="n">
+      <c r="C12" s="40" t="n">
         <v>7.99</v>
       </c>
-      <c r="F12" s="35" t="n">
+      <c r="F12" s="33" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="33" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="30" t="n">
@@ -1882,7 +1854,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+      <c r="A13" s="32" t="n">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -1891,10 +1863,10 @@
       <c r="C13" s="23" t="n">
         <v>5.99</v>
       </c>
-      <c r="F13" s="33" t="n">
+      <c r="F13" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="25" t="n">
@@ -1908,10 +1880,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="35" t="n">
+      <c r="F14" s="33" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="33" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="30" t="n">
@@ -1925,10 +1897,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="33" t="n">
+      <c r="F15" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="25" t="n">
@@ -1946,10 +1918,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="F16" s="35" t="n">
+      <c r="F16" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="33" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="30" t="n">
@@ -1960,13 +1932,13 @@
       <c r="A17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="F17" s="33" t="n">
+      <c r="F17" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="25" t="n">
@@ -1980,10 +1952,10 @@
       <c r="B18" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F18" s="35" t="n">
+      <c r="F18" s="33" t="n">
         <v>16</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="33" t="s">
         <v>63</v>
       </c>
       <c r="H18" s="30" t="n">
@@ -2001,13 +1973,13 @@
       <c r="B19" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="F19" s="37" t="n">
+      <c r="F19" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="35" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -2024,10 +1996,10 @@
       <c r="B20" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="F20" s="40" t="n">
+      <c r="F20" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="33" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="30" t="n">
@@ -2051,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="K21" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2079,7 +2051,7 @@
         <v>2</v>
       </c>
       <c r="K23" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2093,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="K24" s="25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2107,7 +2079,7 @@
         <v>3</v>
       </c>
       <c r="K25" s="30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2121,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="K26" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2135,7 +2107,7 @@
         <v>4</v>
       </c>
       <c r="K27" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2197,27 +2169,27 @@
   </sheetPr>
   <dimension ref="A1:L1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K27" activeCellId="1" sqref="L3:L10 K27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="45" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="45" width="11.61"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="45" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="45" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="45" width="3.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="45" width="10.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="45" width="21.97"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="45" width="9.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="45" width="3.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="45" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="45" width="16.68"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="45" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="45" width="3.31"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="14" style="45" width="9.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="46" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="41" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="41" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="41" width="11.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="41" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="41" width="3.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="41" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="41" width="21.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="41" width="9.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="41" width="3.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="41" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="41" width="16.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="41" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="41" width="3.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="14" style="41" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1023" style="42" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2248,7 +2220,7 @@
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>67</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -2283,10 +2255,10 @@
       <c r="D3" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="33" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="34" t="s">
+      <c r="F3" s="32" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="32" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="25" t="n">
@@ -2315,10 +2287,10 @@
       <c r="D4" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="F4" s="35" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="36" t="s">
+      <c r="F4" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G4" s="33" t="s">
         <v>49</v>
       </c>
       <c r="H4" s="30" t="n">
@@ -2347,10 +2319,10 @@
       <c r="D5" s="25" t="n">
         <v>3</v>
       </c>
-      <c r="F5" s="33" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="34" t="s">
+      <c r="F5" s="32" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="32" t="s">
         <v>50</v>
       </c>
       <c r="H5" s="25" t="n">
@@ -2376,13 +2348,13 @@
       <c r="C6" s="27" t="n">
         <v>45</v>
       </c>
-      <c r="D6" s="42" t="s">
+      <c r="D6" s="38" t="s">
         <v>68</v>
       </c>
-      <c r="F6" s="35" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="36" t="s">
+      <c r="F6" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="33" t="s">
         <v>51</v>
       </c>
       <c r="H6" s="30" t="n">
@@ -2399,10 +2371,10 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F7" s="33" t="n">
+      <c r="F7" s="32" t="n">
         <v>5</v>
       </c>
-      <c r="G7" s="34" t="s">
+      <c r="G7" s="32" t="s">
         <v>52</v>
       </c>
       <c r="H7" s="25" t="n">
@@ -2419,10 +2391,10 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="35" t="n">
+      <c r="F8" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="G8" s="36" t="s">
+      <c r="G8" s="33" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="30" t="n">
@@ -2435,10 +2407,10 @@
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
-      <c r="F9" s="33" t="n">
+      <c r="F9" s="32" t="n">
         <v>7</v>
       </c>
-      <c r="G9" s="34" t="s">
+      <c r="G9" s="32" t="s">
         <v>54</v>
       </c>
       <c r="H9" s="25" t="n">
@@ -2446,7 +2418,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="39" t="s">
         <v>67</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2455,10 +2427,10 @@
       <c r="C10" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="35" t="n">
+      <c r="F10" s="33" t="n">
         <v>8</v>
       </c>
-      <c r="G10" s="36" t="s">
+      <c r="G10" s="33" t="s">
         <v>55</v>
       </c>
       <c r="H10" s="30" t="n">
@@ -2470,7 +2442,7 @@
       <c r="K10" s="20"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="33" t="n">
+      <c r="A11" s="32" t="n">
         <v>1</v>
       </c>
       <c r="B11" s="7" t="s">
@@ -2479,10 +2451,10 @@
       <c r="C11" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="F11" s="33" t="n">
+      <c r="F11" s="32" t="n">
         <v>9</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="32" t="s">
         <v>56</v>
       </c>
       <c r="H11" s="25" t="n">
@@ -2496,19 +2468,19 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="35" t="n">
+      <c r="A12" s="33" t="n">
         <v>2</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="44" t="n">
+      <c r="C12" s="40" t="n">
         <v>7.99</v>
       </c>
-      <c r="F12" s="35" t="n">
+      <c r="F12" s="33" t="n">
         <v>10</v>
       </c>
-      <c r="G12" s="36" t="s">
+      <c r="G12" s="33" t="s">
         <v>57</v>
       </c>
       <c r="H12" s="30" t="n">
@@ -2522,7 +2494,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="33" t="n">
+      <c r="A13" s="32" t="n">
         <v>3</v>
       </c>
       <c r="B13" s="7" t="s">
@@ -2531,10 +2503,10 @@
       <c r="C13" s="23" t="n">
         <v>5.99</v>
       </c>
-      <c r="F13" s="33" t="n">
+      <c r="F13" s="32" t="n">
         <v>11</v>
       </c>
-      <c r="G13" s="34" t="s">
+      <c r="G13" s="32" t="s">
         <v>58</v>
       </c>
       <c r="H13" s="25" t="n">
@@ -2548,10 +2520,10 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F14" s="35" t="n">
+      <c r="F14" s="33" t="n">
         <v>12</v>
       </c>
-      <c r="G14" s="36" t="s">
+      <c r="G14" s="33" t="s">
         <v>59</v>
       </c>
       <c r="H14" s="30" t="n">
@@ -2565,10 +2537,10 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F15" s="33" t="n">
+      <c r="F15" s="32" t="n">
         <v>13</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>60</v>
       </c>
       <c r="H15" s="25" t="n">
@@ -2586,10 +2558,10 @@
         <v>44</v>
       </c>
       <c r="B16" s="21"/>
-      <c r="F16" s="35" t="n">
+      <c r="F16" s="33" t="n">
         <v>14</v>
       </c>
-      <c r="G16" s="36" t="s">
+      <c r="G16" s="33" t="s">
         <v>61</v>
       </c>
       <c r="H16" s="30" t="n">
@@ -2600,21 +2572,21 @@
       <c r="A17" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E17" s="47"/>
-      <c r="F17" s="33" t="n">
+      <c r="E17" s="43"/>
+      <c r="F17" s="32" t="n">
         <v>15</v>
       </c>
-      <c r="G17" s="34" t="s">
+      <c r="G17" s="32" t="s">
         <v>62</v>
       </c>
       <c r="H17" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="J17" s="43"/>
+      <c r="K17" s="43"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="25" t="n">
@@ -2623,11 +2595,11 @@
       <c r="B18" s="25" t="n">
         <v>1</v>
       </c>
-      <c r="E18" s="47"/>
-      <c r="F18" s="35" t="n">
+      <c r="E18" s="43"/>
+      <c r="F18" s="33" t="n">
         <v>16</v>
       </c>
-      <c r="G18" s="36" t="s">
+      <c r="G18" s="33" t="s">
         <v>63</v>
       </c>
       <c r="H18" s="30" t="n">
@@ -2645,14 +2617,14 @@
       <c r="B19" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E19" s="47"/>
-      <c r="F19" s="37" t="n">
+      <c r="E19" s="43"/>
+      <c r="F19" s="34" t="n">
         <v>17</v>
       </c>
-      <c r="G19" s="38" t="s">
+      <c r="G19" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="H19" s="39" t="s">
+      <c r="H19" s="35" t="s">
         <v>65</v>
       </c>
       <c r="J19" s="22" t="s">
@@ -2669,11 +2641,11 @@
       <c r="B20" s="25" t="n">
         <v>14</v>
       </c>
-      <c r="E20" s="47"/>
-      <c r="F20" s="40" t="n">
+      <c r="E20" s="43"/>
+      <c r="F20" s="36" t="n">
         <v>18</v>
       </c>
-      <c r="G20" s="36" t="s">
+      <c r="G20" s="33" t="s">
         <v>66</v>
       </c>
       <c r="H20" s="30" t="n">
@@ -2693,15 +2665,15 @@
       <c r="B21" s="30" t="n">
         <v>16</v>
       </c>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="J21" s="29" t="n">
         <v>1</v>
       </c>
       <c r="K21" s="30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,10 +2683,10 @@
       <c r="B22" s="25" t="n">
         <v>2</v>
       </c>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="J22" s="24" t="n">
         <v>1</v>
       </c>
@@ -2729,15 +2701,15 @@
       <c r="B23" s="30" t="n">
         <v>13</v>
       </c>
-      <c r="E23" s="47"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
       <c r="J23" s="29" t="n">
         <v>2</v>
       </c>
       <c r="K23" s="30" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2747,15 +2719,15 @@
       <c r="B24" s="25" t="n">
         <v>15</v>
       </c>
-      <c r="E24" s="47"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="50"/>
-      <c r="H24" s="47"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="45"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="43"/>
       <c r="J24" s="24" t="n">
         <v>2</v>
       </c>
       <c r="K24" s="25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2765,15 +2737,15 @@
       <c r="B25" s="30" t="n">
         <v>17</v>
       </c>
-      <c r="E25" s="47"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="50"/>
-      <c r="H25" s="47"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="45"/>
+      <c r="G25" s="46"/>
+      <c r="H25" s="43"/>
       <c r="J25" s="29" t="n">
         <v>3</v>
       </c>
       <c r="K25" s="30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2783,15 +2755,15 @@
       <c r="B26" s="25" t="n">
         <v>4</v>
       </c>
-      <c r="E26" s="47"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="50"/>
-      <c r="H26" s="47"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="45"/>
+      <c r="G26" s="46"/>
+      <c r="H26" s="43"/>
       <c r="J26" s="24" t="n">
         <v>3</v>
       </c>
       <c r="K26" s="25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2801,15 +2773,15 @@
       <c r="B27" s="30" t="n">
         <v>6</v>
       </c>
-      <c r="E27" s="47"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="50"/>
-      <c r="H27" s="47"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="45"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="43"/>
       <c r="J27" s="29" t="n">
         <v>4</v>
       </c>
       <c r="K27" s="30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2819,10 +2791,10 @@
       <c r="B28" s="25" t="n">
         <v>16</v>
       </c>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
       <c r="J28" s="0"/>
       <c r="K28" s="0"/>
     </row>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -1,17 +1,38 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernanda/Documents/Projects/sd-09-mysql-one-for-all/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C61473-10A0-0646-A7E9-A4F71CA8C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23100" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="normalized_table" sheetId="2" r:id="rId2"/>
   </sheets>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
   <si>
     <t>usuario_id</t>
   </si>
@@ -97,67 +118,219 @@
     <t>Walter Phoenix</t>
   </si>
   <si>
-    <t>"Soul For Us", "Reflections Of Magic", "Dance With Her Own"</t>
-  </si>
-  <si>
     <t>Exuberant</t>
   </si>
   <si>
-    <t>"Troubles Of My Inner Fire", "Time Fireworks"</t>
-  </si>
-  <si>
     <t>Hallowed Steam</t>
   </si>
   <si>
     <t>Peter Strong</t>
   </si>
   <si>
-    <t>"Magic Circus", "Honey, So Do I", "Sweetie, Let's Go Wild", "She Knows"</t>
-  </si>
-  <si>
     <t>Incandescent</t>
   </si>
   <si>
     <t>Lance Day</t>
   </si>
   <si>
-    <t>"Fantasy For Me", "Celebration Of More", "Rock His Everything", "Home Forever", "Diamond Power", "Honey, Let's Be Silly"</t>
-  </si>
-  <si>
     <t>Temporary Culture</t>
   </si>
   <si>
-    <t>"Thang Of Thunder", "Words Of Her Life", "Without My Streets"</t>
+    <t>Soul For Us</t>
+  </si>
+  <si>
+    <t>Troubles Of My Inner Fire</t>
+  </si>
+  <si>
+    <t>Magic Circus</t>
+  </si>
+  <si>
+    <t>Fantasy For Me</t>
+  </si>
+  <si>
+    <t>Thang Of Thunder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Reflections Of Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dance With Her Own</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Time Fireworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Honey</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> So Do I</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sweetie</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let's Go Wild</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She Knows</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Celebration Of More</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rock His Everything</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Home Forever</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diamond Power</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Let's Be Silly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Words Of Her Life</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Without My Streets</t>
+  </si>
+  <si>
+    <t>Reflections Of Magic</t>
+  </si>
+  <si>
+    <t>Dance With Her Own</t>
+  </si>
+  <si>
+    <t>Time Fireworks</t>
+  </si>
+  <si>
+    <t>Honey</t>
+  </si>
+  <si>
+    <t>So Do I</t>
+  </si>
+  <si>
+    <t>Sweetie</t>
+  </si>
+  <si>
+    <t>Let's Go Wild</t>
+  </si>
+  <si>
+    <t>She Knows</t>
+  </si>
+  <si>
+    <t>Celebration Of More</t>
+  </si>
+  <si>
+    <t>Rock His Everything</t>
+  </si>
+  <si>
+    <t>Home Forever</t>
+  </si>
+  <si>
+    <t>Diamond Power</t>
+  </si>
+  <si>
+    <t>Words Of Her Life</t>
+  </si>
+  <si>
+    <t>Without My Streets</t>
+  </si>
+  <si>
+    <t>Honey, Let's Be Silly</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>user</t>
+  </si>
+  <si>
+    <t>plan_id</t>
+  </si>
+  <si>
+    <t>plan</t>
+  </si>
+  <si>
+    <t>user_name</t>
+  </si>
+  <si>
+    <t>plan_type</t>
+  </si>
+  <si>
+    <t>plan_price</t>
+  </si>
+  <si>
+    <t>artist</t>
+  </si>
+  <si>
+    <t>artist_id</t>
+  </si>
+  <si>
+    <t>artist_name</t>
+  </si>
+  <si>
+    <t>album_name</t>
+  </si>
+  <si>
+    <t>song</t>
+  </si>
+  <si>
+    <t>song_id</t>
+  </si>
+  <si>
+    <t>song_name</t>
+  </si>
+  <si>
+    <t>following</t>
+  </si>
+  <si>
+    <t>history</t>
+  </si>
+  <si>
+    <t>birth_year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
-      <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -186,7 +359,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -362,96 +535,188 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+  <cellXfs count="45">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -461,27 +726,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ff8eaadb"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffd9e2f3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FF8EAADB"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFD9E2F3"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office Theme">
       <a:dk1>
@@ -683,7 +1006,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -702,7 +1025,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -732,7 +1055,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -758,7 +1081,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -784,7 +1107,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -810,7 +1133,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -836,7 +1159,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -862,7 +1185,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -888,7 +1211,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -914,7 +1237,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -940,7 +1263,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -953,9 +1276,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -972,7 +1301,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -991,7 +1320,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1017,7 +1346,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1043,7 +1372,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1069,7 +1398,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1095,7 +1424,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1121,7 +1450,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1147,7 +1476,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1173,7 +1502,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1199,7 +1528,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1225,7 +1554,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1238,9 +1567,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1254,7 +1589,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1273,7 +1608,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1303,7 +1638,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1329,7 +1664,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1355,7 +1690,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1381,7 +1716,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1407,7 +1742,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1433,7 +1768,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1459,7 +1794,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1485,7 +1820,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1511,7 +1846,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1524,172 +1859,182 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.4688" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1406" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="38.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
     <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="24" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.85156" style="1" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31.5" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="3">
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="3">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="3">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="4">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="5"/>
-      <c r="H1" t="s" s="4">
+      <c r="H1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" t="s" s="6">
+      <c r="I1" s="6" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1">
+    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="8">
+      <c r="B2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="9">
         <v>23</v>
       </c>
-      <c r="D2" t="s" s="8">
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="9">
         <v>0</v>
       </c>
-      <c r="F2" t="s" s="10">
+      <c r="F2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="11">
         <v>1</v>
       </c>
-      <c r="I2" t="s" s="12">
+      <c r="I2" s="12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="45" customHeight="1">
+    <row r="3" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" t="s" s="14">
+      <c r="B3" s="14" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="15">
         <v>35</v>
       </c>
-      <c r="D3" t="s" s="14">
+      <c r="D3" s="14" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="15">
         <v>7.99</v>
       </c>
-      <c r="F3" t="s" s="16">
+      <c r="F3" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="18">
         <v>2</v>
       </c>
-      <c r="I3" t="s" s="19">
+      <c r="I3" s="19" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" ht="31.5" customHeight="1">
+    <row r="4" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="7">
         <v>3</v>
       </c>
-      <c r="B4" t="s" s="8">
+      <c r="B4" s="8" t="s">
         <v>15</v>
       </c>
       <c r="C4" s="9">
         <v>20</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="D4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="9">
         <v>5.99</v>
       </c>
-      <c r="F4" t="s" s="10">
+      <c r="F4" s="10" t="s">
         <v>17</v>
       </c>
       <c r="G4" s="5"/>
       <c r="H4" s="11">
         <v>3</v>
       </c>
-      <c r="I4" t="s" s="12">
+      <c r="I4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" ht="39" customHeight="1">
+    <row r="5" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="13">
         <v>4</v>
       </c>
-      <c r="B5" t="s" s="14">
+      <c r="B5" s="14" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="15">
         <v>45</v>
       </c>
-      <c r="D5" t="s" s="14">
+      <c r="D5" s="14" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="15">
         <v>0</v>
       </c>
-      <c r="F5" t="s" s="16">
+      <c r="F5" s="16" t="s">
         <v>20</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="18">
         <v>4</v>
       </c>
-      <c r="I5" t="s" s="19">
+      <c r="I5" s="19" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="6" ht="38.1" customHeight="1">
+    <row r="6" spans="1:10" ht="38" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="20"/>
       <c r="B6" s="20"/>
       <c r="C6" s="20"/>
@@ -1700,17 +2045,17 @@
       <c r="H6" s="23"/>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s" s="3">
+      <c r="B7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s" s="3">
+      <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s" s="3">
+      <c r="D7" s="3" t="s">
         <v>25</v>
       </c>
       <c r="E7" s="24"/>
@@ -1719,104 +2064,1005 @@
       <c r="H7" s="22"/>
       <c r="I7" s="22"/>
     </row>
-    <row r="8" ht="26.55" customHeight="1">
+    <row r="8" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="7">
         <v>1</v>
       </c>
-      <c r="B8" t="s" s="8">
+      <c r="B8" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C8" t="s" s="8">
+      <c r="C8" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D8" t="s" s="26">
-        <v>28</v>
-      </c>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="25" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="22"/>
       <c r="H8" s="22"/>
       <c r="I8" s="22"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:10" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>2</v>
       </c>
-      <c r="B9" t="s" s="14">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s" s="14">
+      <c r="B9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="D9" t="s" s="27">
-        <v>30</v>
-      </c>
-      <c r="E9" s="25"/>
+      <c r="D9" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>41</v>
+      </c>
       <c r="F9" s="25"/>
       <c r="G9" s="22"/>
       <c r="H9" s="22"/>
       <c r="I9" s="22"/>
     </row>
-    <row r="10" ht="26.55" customHeight="1">
+    <row r="10" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="7">
         <v>3</v>
       </c>
-      <c r="B10" t="s" s="8">
-        <v>31</v>
-      </c>
-      <c r="C10" t="s" s="8">
-        <v>32</v>
-      </c>
-      <c r="D10" t="s" s="26">
-        <v>33</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-    </row>
-    <row r="11" ht="39.55" customHeight="1">
+      <c r="B10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>4</v>
       </c>
-      <c r="B11" t="s" s="14">
-        <v>34</v>
-      </c>
-      <c r="C11" t="s" s="14">
-        <v>35</v>
-      </c>
-      <c r="D11" t="s" s="27">
-        <v>36</v>
-      </c>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" ht="26.55" customHeight="1">
+      <c r="B11" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="26.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="7">
         <v>5</v>
       </c>
-      <c r="B12" t="s" s="8">
-        <v>37</v>
-      </c>
-      <c r="C12" t="s" s="8">
+      <c r="B12" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D12" t="s" s="26">
+      <c r="D12" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="E12" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="25" t="s">
+        <v>53</v>
+      </c>
       <c r="G12" s="22"/>
       <c r="H12" s="22"/>
       <c r="I12" s="22"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4107A36C-108B-E245-885F-E32216987BC2}">
+  <dimension ref="B1:G81"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.83203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="20.83203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="11.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="38.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="22.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.83203125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="44"/>
+    </row>
+    <row r="3" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="31"/>
+      <c r="G3" s="33" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="34">
+        <v>1</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="34">
+        <f>2021-G4</f>
+        <v>1998</v>
+      </c>
+      <c r="E4" s="34">
+        <v>1</v>
+      </c>
+      <c r="F4" s="28"/>
+      <c r="G4" s="34">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="34">
+        <v>2</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="34">
+        <f>2021-G5</f>
+        <v>1986</v>
+      </c>
+      <c r="E5" s="34">
+        <v>2</v>
+      </c>
+      <c r="F5" s="28"/>
+      <c r="G5" s="34">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="34">
+        <v>3</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="34">
+        <f>2021-G6</f>
+        <v>2001</v>
+      </c>
+      <c r="E6" s="34">
+        <v>3</v>
+      </c>
+      <c r="F6" s="28"/>
+      <c r="G6" s="34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="34">
+        <v>4</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="34">
+        <f>2021-G7</f>
+        <v>1976</v>
+      </c>
+      <c r="E7" s="34">
+        <v>1</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="34">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+    </row>
+    <row r="10" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+    </row>
+    <row r="11" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="34">
+        <v>1</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="34">
+        <v>0</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="34">
+        <v>2</v>
+      </c>
+      <c r="C12" s="35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="34">
+        <v>7.99</v>
+      </c>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+    </row>
+    <row r="13" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="34">
+        <v>3</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="34">
+        <v>5.99</v>
+      </c>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="30"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+    </row>
+    <row r="15" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="32"/>
+    </row>
+    <row r="16" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C16" s="33" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="34">
+        <v>1</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="34">
+        <v>2</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="34">
+        <v>3</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="34">
+        <v>4</v>
+      </c>
+      <c r="C20" s="37" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="32"/>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="34">
+        <v>1</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="34">
+        <v>2</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="34">
+        <v>3</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="34">
+        <v>4</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="34">
+        <v>5</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="41"/>
+      <c r="F30" s="44"/>
+    </row>
+    <row r="31" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="31"/>
+    </row>
+    <row r="32" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="34">
+        <v>1</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D32" s="34">
+        <v>1</v>
+      </c>
+      <c r="E32" s="34">
+        <v>1</v>
+      </c>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="34">
+        <v>2</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="D33" s="34">
+        <v>1</v>
+      </c>
+      <c r="E33" s="34">
+        <v>1</v>
+      </c>
+      <c r="F33" s="28"/>
+    </row>
+    <row r="34" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="D34" s="34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="34">
+        <v>1</v>
+      </c>
+      <c r="F34" s="28"/>
+    </row>
+    <row r="35" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="34">
+        <v>4</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="D35" s="34">
+        <v>2</v>
+      </c>
+      <c r="E35" s="34">
+        <v>1</v>
+      </c>
+      <c r="F35" s="28"/>
+    </row>
+    <row r="36" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="34">
+        <v>5</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="34">
+        <v>2</v>
+      </c>
+      <c r="E36" s="34">
+        <v>1</v>
+      </c>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="34">
+        <v>6</v>
+      </c>
+      <c r="C37" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D37" s="34">
+        <v>3</v>
+      </c>
+      <c r="E37" s="34">
+        <v>2</v>
+      </c>
+      <c r="F37" s="28"/>
+    </row>
+    <row r="38" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="34">
+        <v>7</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" s="34">
+        <v>3</v>
+      </c>
+      <c r="E38" s="34">
+        <v>2</v>
+      </c>
+      <c r="F38" s="28"/>
+    </row>
+    <row r="39" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="34">
+        <v>8</v>
+      </c>
+      <c r="C39" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="D39" s="34">
+        <v>3</v>
+      </c>
+      <c r="E39" s="34">
+        <v>2</v>
+      </c>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="34">
+        <v>9</v>
+      </c>
+      <c r="C40" s="36" t="s">
+        <v>59</v>
+      </c>
+      <c r="D40" s="34">
+        <v>3</v>
+      </c>
+      <c r="E40" s="34">
+        <v>2</v>
+      </c>
+      <c r="F40" s="28"/>
+    </row>
+    <row r="41" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="34">
+        <v>10</v>
+      </c>
+      <c r="C41" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="D41" s="34">
+        <v>3</v>
+      </c>
+      <c r="E41" s="34">
+        <v>2</v>
+      </c>
+      <c r="F41" s="28"/>
+    </row>
+    <row r="42" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="34">
+        <v>11</v>
+      </c>
+      <c r="C42" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="D42" s="34">
+        <v>3</v>
+      </c>
+      <c r="E42" s="34">
+        <v>2</v>
+      </c>
+      <c r="F42" s="28"/>
+    </row>
+    <row r="43" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="34">
+        <v>12</v>
+      </c>
+      <c r="C43" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="D43" s="34">
+        <v>4</v>
+      </c>
+      <c r="E43" s="34">
+        <v>3</v>
+      </c>
+      <c r="F43" s="28"/>
+    </row>
+    <row r="44" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="34">
+        <v>13</v>
+      </c>
+      <c r="C44" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="D44" s="34">
+        <v>4</v>
+      </c>
+      <c r="E44" s="34">
+        <v>3</v>
+      </c>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="34">
+        <v>14</v>
+      </c>
+      <c r="C45" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="D45" s="34">
+        <v>4</v>
+      </c>
+      <c r="E45" s="34">
+        <v>3</v>
+      </c>
+      <c r="F45" s="28"/>
+    </row>
+    <row r="46" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="34">
+        <v>15</v>
+      </c>
+      <c r="C46" s="36" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="34">
+        <v>4</v>
+      </c>
+      <c r="E46" s="34">
+        <v>3</v>
+      </c>
+      <c r="F46" s="28"/>
+    </row>
+    <row r="47" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="34">
+        <v>16</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D47" s="34">
+        <v>4</v>
+      </c>
+      <c r="E47" s="34">
+        <v>3</v>
+      </c>
+      <c r="F47" s="28"/>
+    </row>
+    <row r="48" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="34">
+        <v>17</v>
+      </c>
+      <c r="C48" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" s="34">
+        <v>4</v>
+      </c>
+      <c r="E48" s="34">
+        <v>3</v>
+      </c>
+      <c r="F48" s="28"/>
+    </row>
+    <row r="49" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="34">
+        <v>18</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" s="34">
+        <v>5</v>
+      </c>
+      <c r="E49" s="34">
+        <v>4</v>
+      </c>
+      <c r="F49" s="28"/>
+    </row>
+    <row r="50" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="34">
+        <v>19</v>
+      </c>
+      <c r="C50" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="34">
+        <v>5</v>
+      </c>
+      <c r="E50" s="34">
+        <v>4</v>
+      </c>
+      <c r="F50" s="28"/>
+    </row>
+    <row r="51" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B51" s="34">
+        <v>20</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="D51" s="34">
+        <v>5</v>
+      </c>
+      <c r="E51" s="34">
+        <v>4</v>
+      </c>
+      <c r="F51" s="28"/>
+    </row>
+    <row r="52" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B53" s="32" t="s">
+        <v>83</v>
+      </c>
+      <c r="C53" s="32"/>
+    </row>
+    <row r="54" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B55" s="42">
+        <v>1</v>
+      </c>
+      <c r="C55" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B56" s="42">
+        <v>1</v>
+      </c>
+      <c r="C56" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="42">
+        <v>1</v>
+      </c>
+      <c r="C57" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="42">
+        <v>2</v>
+      </c>
+      <c r="C58" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="42">
+        <v>2</v>
+      </c>
+      <c r="C59" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="42">
+        <v>3</v>
+      </c>
+      <c r="C60" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="42">
+        <v>3</v>
+      </c>
+      <c r="C61" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="42">
+        <v>4</v>
+      </c>
+      <c r="C62" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="64" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="43"/>
+    </row>
+    <row r="65" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="38" t="s">
+        <v>69</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="42">
+        <v>1</v>
+      </c>
+      <c r="C66" s="42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="42">
+        <v>1</v>
+      </c>
+      <c r="C67" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="42">
+        <v>1</v>
+      </c>
+      <c r="C68" s="42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="42">
+        <v>1</v>
+      </c>
+      <c r="C69" s="42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B70" s="42">
+        <v>2</v>
+      </c>
+      <c r="C70" s="42">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="42">
+        <v>2</v>
+      </c>
+      <c r="C71" s="42">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="42">
+        <v>2</v>
+      </c>
+      <c r="C72" s="42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="42">
+        <v>2</v>
+      </c>
+      <c r="C73" s="42">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B74" s="42">
+        <v>3</v>
+      </c>
+      <c r="C74" s="42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="42">
+        <v>3</v>
+      </c>
+      <c r="C75" s="42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="42">
+        <v>3</v>
+      </c>
+      <c r="C76" s="42">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="42">
+        <v>4</v>
+      </c>
+      <c r="C77" s="42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="42">
+        <v>4</v>
+      </c>
+      <c r="C78" s="42">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B79" s="42">
+        <v>4</v>
+      </c>
+      <c r="C79" s="42">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="B22:D22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernanda/Documents/Projects/sd-09-mysql-one-for-all/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1C61473-10A0-0646-A7E9-A4F71CA8C252}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43403777-5C0B-8642-98DD-4332B8153D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="23100" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="520" windowWidth="28800" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>usuario_id</t>
   </si>
@@ -205,18 +205,6 @@
     <t>Time Fireworks</t>
   </si>
   <si>
-    <t>Honey</t>
-  </si>
-  <si>
-    <t>So Do I</t>
-  </si>
-  <si>
-    <t>Sweetie</t>
-  </si>
-  <si>
-    <t>Let's Go Wild</t>
-  </si>
-  <si>
     <t>She Knows</t>
   </si>
   <si>
@@ -290,6 +278,12 @@
   </si>
   <si>
     <t>birth_year</t>
+  </si>
+  <si>
+    <t>Honey, So Do I</t>
+  </si>
+  <si>
+    <t>Sweetie, Let's Go Wild</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1875,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H5"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2203,10 +2197,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4107A36C-108B-E245-885F-E32216987BC2}">
-  <dimension ref="B1:G81"/>
+  <dimension ref="B1:G79"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="D64" sqref="D64:D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2227,7 +2221,7 @@
     <row r="1" spans="2:7" s="29" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="32" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C2" s="32"/>
       <c r="D2" s="32"/>
@@ -2236,16 +2230,16 @@
     </row>
     <row r="3" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="33" t="s">
-        <v>73</v>
-      </c>
       <c r="D3" s="33" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E3" s="33" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="33" t="s">
@@ -2331,20 +2325,20 @@
     <row r="8" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C9" s="32"/>
       <c r="D9" s="32"/>
     </row>
     <row r="10" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="33" t="s">
         <v>71</v>
-      </c>
-      <c r="C10" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="E10" s="31"/>
       <c r="F10" s="31"/>
@@ -2399,16 +2393,16 @@
     </row>
     <row r="15" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C15" s="32"/>
     </row>
     <row r="16" spans="2:7" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2456,10 +2450,10 @@
         <v>22</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2472,6 +2466,10 @@
       <c r="D24" s="34">
         <v>1</v>
       </c>
+      <c r="F24" s="29" t="str">
+        <f>_xlfn.CONCAT(B24,", ","'",C24,"'",", ",D24)</f>
+        <v>1, 'Envious', 1</v>
+      </c>
     </row>
     <row r="25" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="34">
@@ -2483,6 +2481,10 @@
       <c r="D25" s="34">
         <v>1</v>
       </c>
+      <c r="F25" s="29" t="str">
+        <f>_xlfn.CONCAT(B25,", ","'",C25,"'",", ",D25)</f>
+        <v>2, 'Exuberant', 1</v>
+      </c>
     </row>
     <row r="26" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="34">
@@ -2494,6 +2496,10 @@
       <c r="D26" s="34">
         <v>2</v>
       </c>
+      <c r="F26" s="29" t="str">
+        <f>_xlfn.CONCAT(B26,", ","'",C26,"'",", ",D26)</f>
+        <v>3, 'Hallowed Steam', 2</v>
+      </c>
     </row>
     <row r="27" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="34">
@@ -2505,6 +2511,10 @@
       <c r="D27" s="34">
         <v>3</v>
       </c>
+      <c r="F27" s="29" t="str">
+        <f>_xlfn.CONCAT(B27,", ","'",C27,"'",", ",D27)</f>
+        <v>4, 'Incandescent', 3</v>
+      </c>
     </row>
     <row r="28" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="34">
@@ -2516,11 +2526,15 @@
       <c r="D28" s="34">
         <v>4</v>
       </c>
+      <c r="F28" s="29" t="str">
+        <f>_xlfn.CONCAT(B28,", ","'",C28,"'",", ",D28)</f>
+        <v>5, 'Temporary Culture', 4</v>
+      </c>
     </row>
     <row r="29" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="30" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="39" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C30" s="40"/>
       <c r="D30" s="40"/>
@@ -2529,17 +2543,15 @@
     </row>
     <row r="31" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="33" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C31" s="33" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D31" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="33" t="s">
-        <v>77</v>
-      </c>
+      <c r="E31" s="33"/>
       <c r="F31" s="31"/>
     </row>
     <row r="32" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2552,10 +2564,11 @@
       <c r="D32" s="34">
         <v>1</v>
       </c>
-      <c r="E32" s="34">
-        <v>1</v>
-      </c>
-      <c r="F32" s="28"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="28" t="str">
+        <f>_xlfn.CONCAT("(",B32,", ","'",C32,"'",", ",D32,"),")</f>
+        <v>(1, 'Soul For Us', 1),</v>
+      </c>
     </row>
     <row r="33" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="34">
@@ -2567,10 +2580,11 @@
       <c r="D33" s="34">
         <v>1</v>
       </c>
-      <c r="E33" s="34">
-        <v>1</v>
-      </c>
-      <c r="F33" s="28"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="28" t="str">
+        <f t="shared" ref="F33:F49" si="0">_xlfn.CONCAT("(",B33,", ","'",C33,"'",", ",D33,"),")</f>
+        <v>(2, 'Reflections Of Magic', 1),</v>
+      </c>
     </row>
     <row r="34" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="34">
@@ -2582,10 +2596,11 @@
       <c r="D34" s="34">
         <v>1</v>
       </c>
-      <c r="E34" s="34">
-        <v>1</v>
-      </c>
-      <c r="F34" s="28"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(3, 'Dance With Her Own', 1),</v>
+      </c>
     </row>
     <row r="35" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="34">
@@ -2597,10 +2612,11 @@
       <c r="D35" s="34">
         <v>2</v>
       </c>
-      <c r="E35" s="34">
-        <v>1</v>
-      </c>
-      <c r="F35" s="28"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(4, 'Troubles Of My Inner Fire', 2),</v>
+      </c>
     </row>
     <row r="36" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="34">
@@ -2612,10 +2628,11 @@
       <c r="D36" s="34">
         <v>2</v>
       </c>
-      <c r="E36" s="34">
-        <v>1</v>
-      </c>
-      <c r="F36" s="28"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(5, 'Time Fireworks', 2),</v>
+      </c>
     </row>
     <row r="37" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="34">
@@ -2627,130 +2644,139 @@
       <c r="D37" s="34">
         <v>3</v>
       </c>
-      <c r="E37" s="34">
-        <v>2</v>
-      </c>
-      <c r="F37" s="28"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(6, 'Magic Circus', 3),</v>
+      </c>
     </row>
     <row r="38" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="34">
         <v>7</v>
       </c>
       <c r="C38" s="36" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
       <c r="D38" s="34">
         <v>3</v>
       </c>
-      <c r="E38" s="34">
-        <v>2</v>
-      </c>
-      <c r="F38" s="28"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(7, 'Honey, So Do I', 3),</v>
+      </c>
     </row>
     <row r="39" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="34">
         <v>8</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="D39" s="34">
         <v>3</v>
       </c>
-      <c r="E39" s="34">
-        <v>2</v>
-      </c>
-      <c r="F39" s="28"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(8, 'Sweetie, Let's Go Wild', 3),</v>
+      </c>
     </row>
     <row r="40" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="34">
         <v>9</v>
       </c>
       <c r="C40" s="36" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D40" s="34">
         <v>3</v>
       </c>
-      <c r="E40" s="34">
-        <v>2</v>
-      </c>
-      <c r="F40" s="28"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(9, 'She Knows', 3),</v>
+      </c>
     </row>
     <row r="41" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="34">
         <v>10</v>
       </c>
       <c r="C41" s="36" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="D41" s="34">
-        <v>3</v>
-      </c>
-      <c r="E41" s="34">
-        <v>2</v>
-      </c>
-      <c r="F41" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="E41" s="34"/>
+      <c r="F41" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(10, 'Fantasy For Me', 4),</v>
+      </c>
     </row>
     <row r="42" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="34">
         <v>11</v>
       </c>
       <c r="C42" s="36" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D42" s="34">
-        <v>3</v>
-      </c>
-      <c r="E42" s="34">
-        <v>2</v>
-      </c>
-      <c r="F42" s="28"/>
+        <v>4</v>
+      </c>
+      <c r="E42" s="34"/>
+      <c r="F42" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(11, 'Celebration Of More', 4),</v>
+      </c>
     </row>
     <row r="43" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B43" s="34">
         <v>12</v>
       </c>
       <c r="C43" s="36" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
       <c r="D43" s="34">
         <v>4</v>
       </c>
-      <c r="E43" s="34">
-        <v>3</v>
-      </c>
-      <c r="F43" s="28"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(12, 'Rock His Everything', 4),</v>
+      </c>
     </row>
     <row r="44" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="34">
         <v>13</v>
       </c>
       <c r="C44" s="36" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D44" s="34">
         <v>4</v>
       </c>
-      <c r="E44" s="34">
-        <v>3</v>
-      </c>
-      <c r="F44" s="28"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(13, 'Home Forever', 4),</v>
+      </c>
     </row>
     <row r="45" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="34">
         <v>14</v>
       </c>
       <c r="C45" s="36" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D45" s="34">
         <v>4</v>
       </c>
-      <c r="E45" s="34">
-        <v>3</v>
-      </c>
-      <c r="F45" s="28"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(14, 'Diamond Power', 4),</v>
+      </c>
     </row>
     <row r="46" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="34">
@@ -2762,99 +2788,97 @@
       <c r="D46" s="34">
         <v>4</v>
       </c>
-      <c r="E46" s="34">
-        <v>3</v>
-      </c>
-      <c r="F46" s="28"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(15, 'Honey, Let's Be Silly', 4),</v>
+      </c>
     </row>
     <row r="47" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="34">
         <v>16</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="D47" s="34">
-        <v>4</v>
-      </c>
-      <c r="E47" s="34">
-        <v>3</v>
-      </c>
-      <c r="F47" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="E47" s="34"/>
+      <c r="F47" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(16, 'Thang Of Thunder', 5),</v>
+      </c>
     </row>
     <row r="48" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="34">
         <v>17</v>
       </c>
       <c r="C48" s="36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="D48" s="34">
-        <v>4</v>
-      </c>
-      <c r="E48" s="34">
-        <v>3</v>
-      </c>
-      <c r="F48" s="28"/>
+        <v>5</v>
+      </c>
+      <c r="E48" s="34"/>
+      <c r="F48" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(17, 'Words Of Her Life', 5),</v>
+      </c>
     </row>
     <row r="49" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="34">
         <v>18</v>
       </c>
       <c r="C49" s="36" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D49" s="34">
         <v>5</v>
       </c>
-      <c r="E49" s="34">
-        <v>4</v>
-      </c>
-      <c r="F49" s="28"/>
-    </row>
-    <row r="50" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="34">
-        <v>19</v>
-      </c>
-      <c r="C50" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="D50" s="34">
-        <v>5</v>
-      </c>
-      <c r="E50" s="34">
-        <v>4</v>
-      </c>
-      <c r="F50" s="28"/>
-    </row>
+      <c r="E49" s="34"/>
+      <c r="F49" s="28" t="str">
+        <f t="shared" si="0"/>
+        <v>(18, 'Without My Streets', 5),</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="51" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="34">
-        <v>20</v>
-      </c>
-      <c r="C51" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="D51" s="34">
-        <v>5</v>
-      </c>
-      <c r="E51" s="34">
-        <v>4</v>
-      </c>
-      <c r="F51" s="28"/>
-    </row>
-    <row r="52" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="B51" s="32" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="32"/>
+    </row>
+    <row r="52" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B52" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>73</v>
+      </c>
+    </row>
     <row r="53" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="32" t="s">
-        <v>83</v>
-      </c>
-      <c r="C53" s="32"/>
+      <c r="B53" s="42">
+        <v>1</v>
+      </c>
+      <c r="C53" s="42">
+        <v>1</v>
+      </c>
+      <c r="D53" s="29" t="str">
+        <f>_xlfn.CONCAT("(",B53,", ",C53,"),")</f>
+        <v>(1, 1),</v>
+      </c>
     </row>
     <row r="54" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C54" s="38" t="s">
-        <v>77</v>
+      <c r="B54" s="42">
+        <v>1</v>
+      </c>
+      <c r="C54" s="42">
+        <v>3</v>
+      </c>
+      <c r="D54" s="29" t="str">
+        <f t="shared" ref="D54:D60" si="1">_xlfn.CONCAT("(",B54,", ",C54,"),")</f>
+        <v>(1, 3),</v>
       </c>
     </row>
     <row r="55" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2862,200 +2886,264 @@
         <v>1</v>
       </c>
       <c r="C55" s="42">
-        <v>1</v>
+        <v>4</v>
+      </c>
+      <c r="D55" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>(1, 4),</v>
       </c>
     </row>
     <row r="56" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="42">
+        <v>2</v>
+      </c>
+      <c r="C56" s="42">
         <v>1</v>
       </c>
-      <c r="C56" s="42">
-        <v>3</v>
+      <c r="D56" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>(2, 1),</v>
       </c>
     </row>
     <row r="57" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C57" s="42">
-        <v>4</v>
+        <v>3</v>
+      </c>
+      <c r="D57" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>(2, 3),</v>
       </c>
     </row>
     <row r="58" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C58" s="42">
         <v>1</v>
       </c>
+      <c r="D58" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 1),</v>
+      </c>
     </row>
     <row r="59" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="42">
+        <v>3</v>
+      </c>
+      <c r="C59" s="42">
         <v>2</v>
       </c>
-      <c r="C59" s="42">
-        <v>3</v>
+      <c r="D59" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>(3, 2),</v>
       </c>
     </row>
     <row r="60" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C60" s="42">
+        <v>4</v>
+      </c>
+      <c r="D60" s="29" t="str">
+        <f t="shared" si="1"/>
+        <v>(4, 4),</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="62" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="39" t="s">
+        <v>80</v>
+      </c>
+      <c r="C62" s="41"/>
+      <c r="D62" s="43"/>
+    </row>
+    <row r="63" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="42">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="42">
-        <v>3</v>
-      </c>
-      <c r="C61" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="42">
-        <v>4</v>
-      </c>
-      <c r="C62" s="42">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="64" spans="2:6" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="39" t="s">
-        <v>84</v>
-      </c>
-      <c r="C64" s="41"/>
-      <c r="D64" s="43"/>
-    </row>
-    <row r="65" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B65" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="66" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="42">
+        <v>1</v>
+      </c>
+      <c r="D64" s="29" t="str">
+        <f>_xlfn.CONCAT("(",B64,", ",C64,"),")</f>
+        <v>(1, 1),</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="42">
+        <v>1</v>
+      </c>
+      <c r="C65" s="42">
+        <v>6</v>
+      </c>
+      <c r="D65" s="29" t="str">
+        <f t="shared" ref="D65:D77" si="2">_xlfn.CONCAT("(",B65,", ",C65,"),")</f>
+        <v>(1, 6),</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="42">
         <v>1</v>
       </c>
       <c r="C66" s="42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="D66" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(1, 14),</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="42">
         <v>1</v>
       </c>
       <c r="C67" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="68" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D67" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(1, 16),</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C68" s="42">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="D68" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(2, 13),</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="42">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C69" s="42">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="70" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="D69" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(2, 17),</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="42">
         <v>2</v>
       </c>
       <c r="C70" s="42">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="D70" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(2, 2),</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="42">
         <v>2</v>
       </c>
       <c r="C71" s="42">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="72" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="D71" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(2, 15),</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C72" s="42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+      <c r="D72" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(3, 4),</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C73" s="42">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="D73" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(3, 16),</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="42">
         <v>3</v>
       </c>
       <c r="C74" s="42">
+        <v>6</v>
+      </c>
+      <c r="D74" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(3, 6),</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B75" s="42">
         <v>4</v>
       </c>
-    </row>
-    <row r="75" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="42">
+      <c r="C75" s="42">
         <v>3</v>
       </c>
-      <c r="C75" s="42">
+      <c r="D75" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(4, 3),</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="42">
+        <v>4</v>
+      </c>
+      <c r="C76" s="42">
         <v>18</v>
       </c>
-    </row>
-    <row r="76" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="42">
-        <v>3</v>
-      </c>
-      <c r="C76" s="42">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="77" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D76" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(4, 18),</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="42">
         <v>4</v>
       </c>
       <c r="C77" s="42">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="42">
-        <v>4</v>
-      </c>
-      <c r="C78" s="42">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="79" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="42">
-        <v>4</v>
-      </c>
-      <c r="C79" s="42">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="2:3" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="81" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>11</v>
+      </c>
+      <c r="D77" s="29" t="str">
+        <f t="shared" si="2"/>
+        <v>(4, 11),</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:4" s="29" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="B51:C51"/>
     <mergeCell ref="B30:E30"/>
-    <mergeCell ref="B64:C64"/>
+    <mergeCell ref="B62:C62"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="B9:D9"/>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="96">
   <si>
     <t xml:space="preserve">usuario_id</t>
   </si>
@@ -140,7 +140,7 @@
     <t xml:space="preserve">"Thang Of Thunder", "Words Of Her Life", "Without My Streets"</t>
   </si>
   <si>
-    <t xml:space="preserve">USUARIOS_INFOS</t>
+    <t xml:space="preserve">PLANOS</t>
   </si>
   <si>
     <t xml:space="preserve">ARTISTAS</t>
@@ -149,9 +149,6 @@
     <t xml:space="preserve">CANCOES</t>
   </si>
   <si>
-    <t xml:space="preserve">CANCOES_ALBUMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">USUARIOS_REPRODUCOES</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
     <t xml:space="preserve">cancao</t>
   </si>
   <si>
+    <t xml:space="preserve">plano_id</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -182,6 +182,180 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Walter Phoenix</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Soul For Us"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">gratuito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">“Peter Strong”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Reflections Of Magic""</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">familiar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">“Lance Day”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Dance With Her Own"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">universitário</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">“Freedie Shannon”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Troubles Of My Inner Fire"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Time Fireworks"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBUMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Magic Circus"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Honey, So Do I"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Sweetie, Let's Go Wild"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Thati</t>
     </r>
     <r>
@@ -209,22 +383,14 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Walter Phoenix</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"Soul For Us"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+      <t xml:space="preserve">Envious”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"She Knows"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
   </si>
   <si>
     <r>
@@ -254,15 +420,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">“Peter Strong”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Reflections Of Magic""</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Magic Circus"</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -278,6 +435,36 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">Exuberant</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Fantasy For Me"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Bill</t>
     </r>
     <r>
@@ -290,311 +477,142 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">“Lance Day”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Dance With Her Own"</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Hallowed Steam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Celebration Of More"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Roger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Incandescent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Rock His Everything"</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Temporary Culture</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">"Home Forever"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
   </si>
   <si>
     <t xml:space="preserve">"Diamond Power"</t>
   </si>
   <si>
-    <t xml:space="preserve">3</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Roger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">“Freedie Shannon”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Troubles Of My Inner Fire"</t>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Honey, Let's Be Silly"</t>
   </si>
   <si>
     <t xml:space="preserve">"Thang Of Thunder"</t>
   </si>
   <si>
-    <t xml:space="preserve">"Time Fireworks"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Home Forever"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLANOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBUMS</t>
-  </si>
-  <si>
     <t xml:space="preserve">"Words Of Her Life"</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Honey, So Do I"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Reflections Of Magic"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">plano_id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Sweetie, Let's Go Wild"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Honey, Let's Be Silly"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">gratuito</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Envious”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"She Knows"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">familiar</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Exuberant</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"Fantasy For Me"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">universitário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Hallowed Steam</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"Celebration Of More"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Incandescent</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">"Rock His Everything"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Temporary Culture</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">"Without My Streets"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARTISTAS_ALBUMS</t>
   </si>
 </sst>
 </file>
@@ -643,17 +661,17 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="0"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="7">
@@ -732,14 +750,14 @@
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right/>
+      <right style="hair"/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
       <left style="hair"/>
-      <right style="hair"/>
+      <right/>
       <top style="hair"/>
       <bottom style="hair"/>
       <diagonal/>
@@ -770,7 +788,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -855,15 +873,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -875,83 +889,91 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="4" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="6" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1331,7 +1353,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
+      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1339,22 +1361,22 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="20" width="10.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="20" width="13.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="20" width="11.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="3.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="9.96"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="18.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="3.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="20" width="10.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="24.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="20" width="3.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="20" width="10.4"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="20" width="3.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="20" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="20" width="3.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="20" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="20" width="18.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="20" width="9.96"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="20" width="3.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="20" width="10.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="20" width="24.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="20" width="9.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="20" width="3.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="20" width="10.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="20" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="20" width="16.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="20" width="3.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="20" width="11.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="20" width="10.47"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="19" style="20" width="8.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="19" style="20" width="8.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1364,601 +1386,588 @@
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
       <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="22"/>
+      <c r="F1" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="0"/>
-      <c r="H1" s="23" t="s">
+      <c r="G1" s="21"/>
+      <c r="H1" s="0"/>
+      <c r="I1" s="0"/>
+      <c r="J1" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="I1" s="23"/>
-      <c r="J1" s="24"/>
-      <c r="K1" s="23" t="s">
+      <c r="K1" s="21"/>
+      <c r="L1" s="21"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="L1" s="23"/>
-      <c r="N1" s="25" t="s">
+      <c r="O1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="O1" s="25"/>
-      <c r="Q1" s="25" t="s">
+      <c r="R1" s="24"/>
+    </row>
+    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="R1" s="25"/>
-    </row>
-    <row r="2" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="26" t="s">
+      <c r="G2" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="H2" s="0"/>
+      <c r="I2" s="0"/>
+      <c r="J2" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="L2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="23"/>
+      <c r="N2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="O2" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="G3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="0"/>
+      <c r="I3" s="0"/>
+      <c r="J3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K3" s="29" t="s">
+        <v>49</v>
+      </c>
+      <c r="L3" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" s="23"/>
+      <c r="N3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O3" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="32" t="n">
         <v>2</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="27" t="s">
-        <v>24</v>
-      </c>
-      <c r="G2" s="0"/>
-      <c r="H2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I2" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="N2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q2" s="28" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="27" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="n">
+      <c r="G4" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="0"/>
+      <c r="I4" s="0"/>
+      <c r="J4" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="34" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" s="29" t="n">
-        <v>23</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="29" t="n">
+      <c r="M4" s="35"/>
+      <c r="N4" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="F3" s="30" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0"/>
-      <c r="H3" s="29" t="n">
+      <c r="O4" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="R4" s="37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="34" t="n">
+        <v>7.99</v>
+      </c>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="0"/>
+      <c r="I5" s="0"/>
+      <c r="J5" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" s="23"/>
+      <c r="N5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q5" s="30" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="28" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="27" t="n">
+        <v>5.99</v>
+      </c>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="32" t="n">
+        <v>4</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" s="0"/>
+      <c r="I6" s="0"/>
+      <c r="J6" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="K6" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" s="35"/>
+      <c r="N6" s="36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q6" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R6" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="24"/>
-      <c r="K3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L3" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C4" s="34" t="n">
-        <v>35</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>53</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I4" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="38"/>
-      <c r="K4" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="L4" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q4" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="29" t="n">
-        <v>20</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="G5" s="0"/>
-      <c r="H5" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="I5" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="J5" s="24"/>
-      <c r="K5" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="L5" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q5" s="32" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="34" t="n">
-        <v>45</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="E6" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" s="40" t="s">
-        <v>62</v>
-      </c>
-      <c r="G6" s="0"/>
-      <c r="H6" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="I6" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="J6" s="38"/>
-      <c r="K6" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="L6" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" s="39" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q6" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="42" t="s">
-        <v>51</v>
-      </c>
     </row>
     <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="0"/>
+      <c r="A7" s="35"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="35"/>
+      <c r="E7" s="35"/>
       <c r="F7" s="0"/>
       <c r="G7" s="0"/>
-      <c r="H7" s="29" t="n">
+      <c r="H7" s="0"/>
+      <c r="I7" s="0"/>
+      <c r="J7" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="I7" s="31" t="s">
+      <c r="K7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" s="35"/>
+      <c r="N7" s="30" t="n">
+        <v>2</v>
+      </c>
+      <c r="O7" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="J7" s="38"/>
-      <c r="K7" s="29" t="n">
+      <c r="Q7" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="L7" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" s="32" t="n">
+      <c r="R7" s="31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="22"/>
+      <c r="F8" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="0"/>
+      <c r="J8" s="34" t="n">
+        <v>6</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="M8" s="35"/>
+      <c r="N8" s="36" t="n">
         <v>2</v>
       </c>
-      <c r="O7" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q7" s="32" t="n">
+      <c r="O8" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q8" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" s="33" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="0"/>
+      <c r="J9" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="K9" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="M9" s="35"/>
+      <c r="N9" s="30" t="n">
         <v>2</v>
       </c>
-      <c r="R7" s="33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="23" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="23"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="I8" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="38"/>
-      <c r="K8" s="34" t="n">
+      <c r="O9" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q9" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="L8" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="N8" s="39" t="n">
+      <c r="R9" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="O8" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="39" t="n">
+      <c r="D10" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="22"/>
+      <c r="F10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="0"/>
+      <c r="J10" s="34" t="n">
+        <v>8</v>
+      </c>
+      <c r="K10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="L10" s="34" t="n">
         <v>3</v>
       </c>
-      <c r="R8" s="37" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="I9" s="31" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="38"/>
-      <c r="K9" s="29" t="n">
+      <c r="M10" s="35"/>
+      <c r="N10" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="O10" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="Q10" s="36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R10" s="37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C11" s="27" t="n">
+        <v>23</v>
+      </c>
+      <c r="D11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="22"/>
+      <c r="F11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="27" t="n">
+        <v>9</v>
+      </c>
+      <c r="K11" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="L11" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="L9" s="29" t="n">
-        <v>7</v>
-      </c>
-      <c r="N9" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="O9" s="31" t="s">
-        <v>72</v>
-      </c>
-      <c r="Q9" s="32" t="n">
+      <c r="M11" s="35"/>
+      <c r="N11" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="R9" s="33" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" s="27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G10" s="0"/>
-      <c r="H10" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="38"/>
-      <c r="K10" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="L10" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="N10" s="39" t="n">
-        <v>2</v>
-      </c>
-      <c r="O10" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q10" s="39" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="40" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C11" s="29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="30" t="s">
+      <c r="O11" s="29" t="s">
         <v>77</v>
-      </c>
-      <c r="G11" s="0"/>
-      <c r="H11" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="J11" s="38"/>
-      <c r="K11" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="L11" s="29" t="n">
-        <v>9</v>
-      </c>
-      <c r="N11" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="O11" s="31" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="34" t="n">
         <v>2</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="38" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="34" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="34" t="n">
+        <v>2</v>
+      </c>
+      <c r="G12" s="38" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="34" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="34" t="n">
+      <c r="H12" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" s="0"/>
+      <c r="J12" s="34" t="n">
+        <v>10</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="L12" s="34" t="n">
+        <v>4</v>
+      </c>
+      <c r="M12" s="35"/>
+      <c r="N12" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O12" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q12" s="43"/>
+      <c r="R12" s="43"/>
+    </row>
+    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="27" t="n">
+        <v>20</v>
+      </c>
+      <c r="D13" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E13" s="22"/>
+      <c r="F13" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G13" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="F12" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="J12" s="38"/>
-      <c r="K12" s="34" t="n">
+      <c r="I13" s="0"/>
+      <c r="J13" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="K13" s="29" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="L12" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="N12" s="39" t="n">
+      <c r="M13" s="35"/>
+      <c r="N13" s="30" t="n">
         <v>3</v>
       </c>
-      <c r="O12" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" s="25"/>
-    </row>
-    <row r="13" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C13" s="29" t="n">
-        <v>5.99</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="F13" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="G13" s="0"/>
-      <c r="H13" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>84</v>
-      </c>
-      <c r="J13" s="38"/>
-      <c r="K13" s="29" t="n">
-        <v>4</v>
-      </c>
-      <c r="L13" s="29" t="n">
-        <v>11</v>
-      </c>
-      <c r="N13" s="32" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="Q13" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="R13" s="27" t="s">
-        <v>73</v>
-      </c>
+      <c r="O13" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q13" s="44"/>
+      <c r="R13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>76</v>
+      <c r="B14" s="38" t="s">
+        <v>84</v>
       </c>
       <c r="C14" s="34" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" s="34" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" s="34" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="G14" s="38" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="0"/>
       <c r="H14" s="34" t="n">
+        <v>3</v>
+      </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="34" t="n">
         <v>12</v>
       </c>
-      <c r="I14" s="37" t="s">
+      <c r="K14" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="K14" s="34" t="n">
+      <c r="L14" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="L14" s="34" t="n">
-        <v>12</v>
-      </c>
-      <c r="N14" s="39" t="n">
+      <c r="N14" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="O14" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q14" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="R14" s="29" t="n">
-        <v>1</v>
-      </c>
+      <c r="O14" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="45"/>
+      <c r="R14" s="45"/>
     </row>
     <row r="15" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A15" s="0"/>
       <c r="B15" s="0"/>
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
-      <c r="E15" s="29" t="n">
+      <c r="E15" s="0"/>
+      <c r="F15" s="27" t="n">
         <v>5</v>
       </c>
-      <c r="F15" s="30" t="s">
+      <c r="G15" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="G15" s="0"/>
-      <c r="H15" s="29" t="n">
+      <c r="H15" s="27" t="n">
+        <v>4</v>
+      </c>
+      <c r="I15" s="0"/>
+      <c r="J15" s="27" t="n">
         <v>13</v>
       </c>
-      <c r="I15" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="K15" s="29" t="n">
+      <c r="K15" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L15" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="L15" s="29" t="n">
-        <v>13</v>
-      </c>
-      <c r="N15" s="32" t="n">
+      <c r="N15" s="30" t="n">
         <v>4</v>
       </c>
-      <c r="O15" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q15" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="R15" s="34" t="n">
-        <v>2</v>
-      </c>
+      <c r="O15" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q15" s="45"/>
+      <c r="R15" s="45"/>
     </row>
     <row r="16" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A16" s="0"/>
@@ -1968,155 +1977,128 @@
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
       <c r="G16" s="0"/>
-      <c r="H16" s="34" t="n">
+      <c r="H16" s="0"/>
+      <c r="I16" s="0"/>
+      <c r="J16" s="34" t="n">
         <v>14</v>
       </c>
-      <c r="I16" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="34" t="n">
+      <c r="K16" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="34" t="n">
         <v>4</v>
       </c>
-      <c r="L16" s="34" t="n">
-        <v>14</v>
-      </c>
-      <c r="N16" s="39" t="n">
+      <c r="N16" s="36" t="n">
         <v>4</v>
       </c>
-      <c r="O16" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="Q16" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="R16" s="29" t="n">
-        <v>3</v>
-      </c>
+      <c r="O16" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q16" s="45"/>
+      <c r="R16" s="45"/>
     </row>
     <row r="17" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A17" s="0"/>
       <c r="B17" s="0"/>
       <c r="C17" s="0"/>
       <c r="D17" s="0"/>
-      <c r="E17" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F17" s="23"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="29" t="n">
+      <c r="E17" s="0"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="0"/>
+      <c r="I17" s="0"/>
+      <c r="J17" s="27" t="n">
         <v>15</v>
       </c>
-      <c r="I17" s="31" t="s">
-        <v>75</v>
-      </c>
-      <c r="K17" s="29" t="n">
+      <c r="K17" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L17" s="27" t="n">
         <v>4</v>
-      </c>
-      <c r="L17" s="29" t="n">
-        <v>15</v>
       </c>
       <c r="N17" s="0"/>
       <c r="O17" s="0"/>
-      <c r="Q17" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="R17" s="34" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q17" s="45"/>
+      <c r="R17" s="45"/>
     </row>
     <row r="18" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="43"/>
-      <c r="B18" s="43"/>
-      <c r="C18" s="43"/>
+      <c r="A18" s="0"/>
+      <c r="B18" s="0"/>
+      <c r="C18" s="0"/>
       <c r="D18" s="0"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="34" t="n">
+      <c r="E18" s="0"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="0"/>
+      <c r="I18" s="0"/>
+      <c r="J18" s="34" t="n">
         <v>16</v>
       </c>
-      <c r="I18" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="K18" s="34" t="n">
+      <c r="K18" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="L18" s="34" t="n">
         <v>5</v>
-      </c>
-      <c r="L18" s="34" t="n">
-        <v>16</v>
       </c>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
     </row>
     <row r="19" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
+      <c r="A19" s="0"/>
+      <c r="B19" s="0"/>
+      <c r="C19" s="0"/>
       <c r="D19" s="0"/>
-      <c r="E19" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="F19" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="0"/>
-      <c r="H19" s="29" t="n">
+      <c r="E19" s="0"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="0"/>
+      <c r="I19" s="0"/>
+      <c r="J19" s="27" t="n">
         <v>17</v>
       </c>
-      <c r="I19" s="31" t="s">
-        <v>69</v>
-      </c>
-      <c r="K19" s="29" t="n">
+      <c r="K19" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L19" s="27" t="n">
         <v>5</v>
-      </c>
-      <c r="L19" s="29" t="n">
-        <v>17</v>
       </c>
       <c r="N19" s="0"/>
       <c r="O19" s="0"/>
     </row>
     <row r="20" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="43"/>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
+      <c r="A20" s="0"/>
+      <c r="B20" s="0"/>
+      <c r="C20" s="0"/>
       <c r="D20" s="0"/>
-      <c r="E20" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="F20" s="29" t="n">
-        <v>1</v>
-      </c>
-      <c r="G20" s="0"/>
-      <c r="H20" s="34" t="n">
+      <c r="E20" s="0"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="0"/>
+      <c r="I20" s="0"/>
+      <c r="J20" s="34" t="n">
         <v>18</v>
       </c>
-      <c r="I20" s="37" t="s">
-        <v>88</v>
-      </c>
-      <c r="K20" s="34" t="n">
+      <c r="K20" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="34" t="n">
         <v>5</v>
-      </c>
-      <c r="L20" s="34" t="n">
-        <v>18</v>
       </c>
       <c r="N20" s="0"/>
       <c r="O20" s="0"/>
     </row>
     <row r="21" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="45"/>
-      <c r="B21" s="45"/>
-      <c r="C21" s="45"/>
+      <c r="A21" s="0"/>
+      <c r="B21" s="0"/>
+      <c r="C21" s="0"/>
       <c r="D21" s="0"/>
-      <c r="E21" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F21" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G21" s="0"/>
+      <c r="E21" s="0"/>
+      <c r="F21" s="45"/>
+      <c r="G21" s="45"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
+      <c r="J21" s="0"/>
       <c r="K21" s="0"/>
-      <c r="L21" s="0"/>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
     </row>
@@ -2125,17 +2107,13 @@
       <c r="B22" s="45"/>
       <c r="C22" s="45"/>
       <c r="D22" s="0"/>
-      <c r="E22" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="F22" s="29" t="n">
-        <v>3</v>
-      </c>
-      <c r="G22" s="0"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="45"/>
       <c r="H22" s="0"/>
       <c r="I22" s="0"/>
+      <c r="J22" s="0"/>
       <c r="K22" s="0"/>
-      <c r="L22" s="0"/>
       <c r="N22" s="0"/>
       <c r="O22" s="0"/>
     </row>
@@ -2144,17 +2122,13 @@
       <c r="B23" s="45"/>
       <c r="C23" s="45"/>
       <c r="D23" s="0"/>
-      <c r="E23" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="F23" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="G23" s="0"/>
+      <c r="E23" s="0"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="45"/>
       <c r="H23" s="0"/>
       <c r="I23" s="0"/>
+      <c r="J23" s="0"/>
       <c r="K23" s="0"/>
-      <c r="L23" s="0"/>
       <c r="N23" s="0"/>
       <c r="O23" s="0"/>
     </row>
@@ -2163,17 +2137,13 @@
       <c r="B24" s="45"/>
       <c r="C24" s="45"/>
       <c r="D24" s="0"/>
-      <c r="E24" s="41" t="n">
-        <v>4</v>
-      </c>
-      <c r="F24" s="29" t="n">
-        <v>5</v>
-      </c>
-      <c r="G24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="45"/>
       <c r="H24" s="0"/>
       <c r="I24" s="0"/>
+      <c r="J24" s="0"/>
       <c r="K24" s="0"/>
-      <c r="L24" s="0"/>
       <c r="N24" s="0"/>
       <c r="O24" s="0"/>
     </row>
@@ -2186,8 +2156,8 @@
       <c r="G25" s="0"/>
       <c r="H25" s="0"/>
       <c r="I25" s="0"/>
+      <c r="J25" s="0"/>
       <c r="K25" s="0"/>
-      <c r="L25" s="0"/>
       <c r="N25" s="0"/>
       <c r="O25" s="0"/>
     </row>
@@ -2201,8 +2171,8 @@
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
       <c r="I26" s="0"/>
+      <c r="J26" s="0"/>
       <c r="K26" s="0"/>
-      <c r="L26" s="0"/>
       <c r="N26" s="0"/>
       <c r="O26" s="0"/>
     </row>
@@ -2216,8 +2186,8 @@
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
       <c r="I27" s="0"/>
+      <c r="J27" s="0"/>
       <c r="K27" s="0"/>
-      <c r="L27" s="0"/>
       <c r="N27" s="0"/>
       <c r="O27" s="0"/>
     </row>
@@ -2231,8 +2201,8 @@
       <c r="G28" s="0"/>
       <c r="H28" s="0"/>
       <c r="I28" s="0"/>
+      <c r="J28" s="0"/>
       <c r="K28" s="0"/>
-      <c r="L28" s="0"/>
       <c r="N28" s="0"/>
       <c r="O28" s="0"/>
     </row>
@@ -2246,8 +2216,8 @@
       <c r="G29" s="0"/>
       <c r="H29" s="0"/>
       <c r="I29" s="0"/>
+      <c r="J29" s="0"/>
       <c r="K29" s="0"/>
-      <c r="L29" s="0"/>
       <c r="N29" s="0"/>
       <c r="O29" s="0"/>
     </row>
@@ -2261,8 +2231,8 @@
       <c r="G30" s="0"/>
       <c r="H30" s="0"/>
       <c r="I30" s="0"/>
+      <c r="J30" s="0"/>
       <c r="K30" s="0"/>
-      <c r="L30" s="0"/>
       <c r="N30" s="0"/>
       <c r="O30" s="0"/>
     </row>
@@ -2276,67 +2246,72 @@
       <c r="G31" s="0"/>
       <c r="H31" s="0"/>
       <c r="I31" s="0"/>
+      <c r="J31" s="0"/>
       <c r="K31" s="0"/>
-      <c r="L31" s="0"/>
       <c r="N31" s="0"/>
       <c r="O31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="0"/>
       <c r="B32" s="0"/>
-      <c r="E32" s="0"/>
       <c r="F32" s="0"/>
       <c r="G32" s="0"/>
       <c r="H32" s="0"/>
       <c r="I32" s="0"/>
+      <c r="J32" s="0"/>
+      <c r="K32" s="0"/>
       <c r="N32" s="0"/>
       <c r="O32" s="0"/>
     </row>
     <row r="33" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="0"/>
       <c r="B33" s="0"/>
-      <c r="E33" s="0"/>
       <c r="F33" s="0"/>
       <c r="G33" s="0"/>
       <c r="H33" s="0"/>
       <c r="I33" s="0"/>
+      <c r="J33" s="0"/>
+      <c r="K33" s="0"/>
       <c r="N33" s="0"/>
       <c r="O33" s="0"/>
     </row>
     <row r="34" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
       <c r="B34" s="0"/>
-      <c r="E34" s="0"/>
       <c r="F34" s="0"/>
       <c r="G34" s="0"/>
       <c r="H34" s="0"/>
       <c r="I34" s="0"/>
+      <c r="J34" s="0"/>
+      <c r="K34" s="0"/>
       <c r="N34" s="0"/>
       <c r="O34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="0"/>
       <c r="B35" s="0"/>
-      <c r="E35" s="0"/>
       <c r="F35" s="0"/>
       <c r="G35" s="0"/>
       <c r="H35" s="0"/>
       <c r="I35" s="0"/>
+      <c r="J35" s="0"/>
+      <c r="K35" s="0"/>
       <c r="N35" s="0"/>
       <c r="O35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="E36" s="0"/>
       <c r="F36" s="0"/>
       <c r="G36" s="0"/>
       <c r="H36" s="0"/>
       <c r="I36" s="0"/>
+      <c r="J36" s="0"/>
+      <c r="K36" s="0"/>
       <c r="N36" s="0"/>
       <c r="O36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="H37" s="0"/>
-      <c r="I37" s="0"/>
+      <c r="J37" s="0"/>
+      <c r="K37" s="0"/>
       <c r="N37" s="0"/>
       <c r="O37" s="0"/>
     </row>
@@ -2345,17 +2320,16 @@
       <c r="O38" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="K1:L1"/>
+  <mergeCells count="9">
+    <mergeCell ref="A1:C2"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="J1:L1"/>
     <mergeCell ref="N1:O1"/>
     <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A8:C9"/>
-    <mergeCell ref="E8:F9"/>
+    <mergeCell ref="A8:D9"/>
+    <mergeCell ref="F8:H9"/>
     <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="E17:F18"/>
+    <mergeCell ref="F17:G18"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.3"/>

--- a/SpotifyClone-Non-NormalizedTable.xlsx
+++ b/SpotifyClone-Non-NormalizedTable.xlsx
@@ -155,6 +155,9 @@
     <t xml:space="preserve">USUARIOS_SEGUIDAS</t>
   </si>
   <si>
+    <t xml:space="preserve">plano_id</t>
+  </si>
+  <si>
     <t xml:space="preserve">artista_id</t>
   </si>
   <si>
@@ -164,9 +167,6 @@
     <t xml:space="preserve">cancao</t>
   </si>
   <si>
-    <t xml:space="preserve">plano_id</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -182,6 +182,33 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
+      <t xml:space="preserve">gratuito</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
       <t xml:space="preserve">Walter Phoenix</t>
     </r>
     <r>
@@ -215,7 +242,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">gratuito</t>
+      <t xml:space="preserve">familiar</t>
     </r>
     <r>
       <rPr>
@@ -251,7 +278,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">familiar</t>
+      <t xml:space="preserve">universitário</t>
     </r>
     <r>
       <rPr>
@@ -275,6 +302,39 @@
     <t xml:space="preserve">3</t>
   </si>
   <si>
+    <t xml:space="preserve">“Freedie Shannon”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Troubles Of My Inner Fire"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USUARIOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Time Fireworks"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALBUMS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Magic Circus"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Honey, So Do I"</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -290,49 +350,16 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">universitário</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">“Freedie Shannon”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Troubles Of My Inner Fire"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Time Fireworks"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">13</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USUARIOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBUMS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Magic Circus"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">17</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Honey, So Do I"</t>
+      <t xml:space="preserve">Thati</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="0"/>
+      </rPr>
+      <t xml:space="preserve">”</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">"Sweetie, Let's Go Wild"</t>
@@ -356,7 +383,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Thati</t>
+      <t xml:space="preserve">Cintia</t>
     </r>
     <r>
       <rPr>
@@ -408,7 +435,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Cintia</t>
+      <t xml:space="preserve">Bill</t>
     </r>
     <r>
       <rPr>
@@ -465,7 +492,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Bill</t>
+      <t xml:space="preserve">Roger</t>
     </r>
     <r>
       <rPr>
@@ -505,33 +532,6 @@
   </si>
   <si>
     <t xml:space="preserve">"Celebration Of More"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Roger</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">”</t>
-    </r>
   </si>
   <si>
     <r>
@@ -909,6 +909,10 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -917,6 +921,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -926,22 +938,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1353,7 +1353,7 @@
   <dimension ref="A1:R38"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="O21" activeCellId="0" sqref="O21"/>
+      <selection pane="topLeft" activeCell="Q22" activeCellId="0" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8515625" defaultRowHeight="17" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1379,7 +1379,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1021" min="19" style="20" width="8.85"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="21" t="s">
         <v>39</v>
       </c>
@@ -1414,40 +1414,22 @@
       <c r="C2" s="21"/>
       <c r="D2" s="22"/>
       <c r="E2" s="22"/>
-      <c r="F2" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>24</v>
-      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
       <c r="H2" s="0"/>
       <c r="I2" s="0"/>
-      <c r="J2" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="L2" s="25" t="s">
-        <v>22</v>
-      </c>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="O2" s="26" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q2" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
     </row>
     <row r="3" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B3" s="25" t="s">
         <v>3</v>
@@ -1457,35 +1439,35 @@
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="22"/>
-      <c r="F3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="28" t="s">
-        <v>48</v>
+      <c r="F3" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="G3" s="25" t="s">
+        <v>24</v>
       </c>
       <c r="H3" s="0"/>
       <c r="I3" s="0"/>
-      <c r="J3" s="27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="L3" s="27" t="n">
-        <v>1</v>
+      <c r="J3" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K3" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="25" t="s">
+        <v>22</v>
       </c>
       <c r="M3" s="23"/>
-      <c r="N3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q3" s="30" t="n">
-        <v>1</v>
-      </c>
-      <c r="R3" s="31" t="s">
-        <v>50</v>
+      <c r="N3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="O3" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q3" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="25" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1493,85 +1475,85 @@
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="27" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="22"/>
       <c r="E4" s="22"/>
-      <c r="F4" s="32" t="n">
-        <v>2</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>52</v>
+      <c r="F4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>49</v>
       </c>
       <c r="H4" s="0"/>
       <c r="I4" s="0"/>
-      <c r="J4" s="34" t="n">
+      <c r="J4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="K4" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" s="30"/>
+      <c r="N4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q4" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R4" s="32" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="K4" s="33" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="M4" s="35"/>
-      <c r="N4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O4" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q4" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="R4" s="37" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="38" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="34" t="n">
+      <c r="B5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="33" t="n">
         <v>7.99</v>
       </c>
       <c r="D5" s="22"/>
       <c r="E5" s="22"/>
-      <c r="F5" s="39" t="n">
-        <v>3</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>56</v>
+      <c r="F5" s="35" t="n">
+        <v>2</v>
+      </c>
+      <c r="G5" s="36" t="s">
+        <v>53</v>
       </c>
       <c r="H5" s="0"/>
       <c r="I5" s="0"/>
-      <c r="J5" s="27" t="n">
-        <v>3</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="L5" s="27" t="n">
+      <c r="J5" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="K5" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="33" t="n">
         <v>1</v>
       </c>
       <c r="M5" s="23"/>
-      <c r="N5" s="30" t="n">
+      <c r="N5" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="29" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q5" s="30" t="n">
+      <c r="O5" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q5" s="37" t="n">
         <v>1</v>
       </c>
-      <c r="R5" s="31" t="s">
-        <v>59</v>
+      <c r="R5" s="38" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1579,112 +1561,114 @@
         <v>3</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C6" s="27" t="n">
         <v>5.99</v>
       </c>
       <c r="D6" s="22"/>
       <c r="E6" s="22"/>
-      <c r="F6" s="32" t="n">
-        <v>4</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>61</v>
+      <c r="F6" s="39" t="n">
+        <v>3</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>57</v>
       </c>
       <c r="H6" s="0"/>
       <c r="I6" s="0"/>
-      <c r="J6" s="34" t="n">
+      <c r="J6" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="K6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" s="30"/>
+      <c r="N6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q6" s="31" t="n">
+        <v>1</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="35" t="n">
         <v>4</v>
       </c>
-      <c r="K6" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="L6" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="M6" s="35"/>
-      <c r="N6" s="36" t="n">
-        <v>1</v>
-      </c>
-      <c r="O6" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q6" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R6" s="40" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="35"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="35"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
+      <c r="G7" s="38" t="s">
+        <v>61</v>
+      </c>
       <c r="H7" s="0"/>
       <c r="I7" s="0"/>
-      <c r="J7" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="K7" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="27" t="n">
+      <c r="J7" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="K7" s="36" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="33" t="n">
         <v>2</v>
       </c>
-      <c r="M7" s="35"/>
-      <c r="N7" s="30" t="n">
+      <c r="M7" s="30"/>
+      <c r="N7" s="37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q7" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="O7" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="Q7" s="30" t="n">
-        <v>2</v>
-      </c>
-      <c r="R7" s="31" t="s">
-        <v>59</v>
+      <c r="R7" s="40" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B8" s="41"/>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
       <c r="E8" s="22"/>
-      <c r="F8" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
+      <c r="F8" s="0"/>
+      <c r="G8" s="0"/>
+      <c r="H8" s="0"/>
       <c r="I8" s="0"/>
-      <c r="J8" s="34" t="n">
-        <v>6</v>
-      </c>
-      <c r="K8" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="L8" s="34" t="n">
-        <v>3</v>
-      </c>
-      <c r="M8" s="35"/>
-      <c r="N8" s="36" t="n">
+      <c r="J8" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="L8" s="27" t="n">
         <v>2</v>
       </c>
-      <c r="O8" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q8" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="R8" s="33" t="s">
-        <v>70</v>
+      <c r="M8" s="30"/>
+      <c r="N8" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="O8" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q8" s="31" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" s="32" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1693,31 +1677,33 @@
       <c r="C9" s="41"/>
       <c r="D9" s="41"/>
       <c r="E9" s="22"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="21" t="s">
+        <v>67</v>
+      </c>
       <c r="G9" s="21"/>
       <c r="H9" s="21"/>
       <c r="I9" s="0"/>
-      <c r="J9" s="27" t="n">
-        <v>7</v>
-      </c>
-      <c r="K9" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="L9" s="27" t="n">
+      <c r="J9" s="33" t="n">
+        <v>6</v>
+      </c>
+      <c r="K9" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="L9" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="M9" s="35"/>
-      <c r="N9" s="30" t="n">
+      <c r="M9" s="30"/>
+      <c r="N9" s="37" t="n">
         <v>2</v>
       </c>
-      <c r="O9" s="29" t="s">
+      <c r="O9" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R9" s="36" t="s">
         <v>70</v>
-      </c>
-      <c r="Q9" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="R9" s="31" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1731,40 +1717,34 @@
         <v>2</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E10" s="22"/>
-      <c r="F10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>44</v>
-      </c>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
       <c r="I10" s="0"/>
-      <c r="J10" s="34" t="n">
-        <v>8</v>
-      </c>
-      <c r="K10" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L10" s="34" t="n">
+      <c r="J10" s="27" t="n">
+        <v>7</v>
+      </c>
+      <c r="K10" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="L10" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="36" t="n">
+      <c r="M10" s="30"/>
+      <c r="N10" s="31" t="n">
         <v>2</v>
       </c>
-      <c r="O10" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q10" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="R10" s="37" t="n">
-        <v>4</v>
+      <c r="O10" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q10" s="31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" s="32" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1772,7 +1752,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C11" s="27" t="n">
         <v>23</v>
@@ -1781,72 +1761,78 @@
         <v>1</v>
       </c>
       <c r="E11" s="22"/>
-      <c r="F11" s="27" t="n">
+      <c r="F11" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="G11" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I11" s="0"/>
+      <c r="J11" s="33" t="n">
+        <v>8</v>
+      </c>
+      <c r="K11" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="L11" s="33" t="n">
+        <v>3</v>
+      </c>
+      <c r="M11" s="30"/>
+      <c r="N11" s="37" t="n">
+        <v>2</v>
+      </c>
+      <c r="O11" s="36" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q11" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R11" s="38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" s="33" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="E12" s="22"/>
+      <c r="F12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="G11" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="27" t="n">
+      <c r="G12" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H12" s="27" t="n">
         <v>1</v>
       </c>
-      <c r="I11" s="0"/>
-      <c r="J11" s="27" t="n">
+      <c r="I12" s="0"/>
+      <c r="J12" s="27" t="n">
         <v>9</v>
       </c>
-      <c r="K11" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="L11" s="27" t="n">
+      <c r="K12" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="L12" s="27" t="n">
         <v>3</v>
       </c>
-      <c r="M11" s="35"/>
-      <c r="N11" s="30" t="n">
+      <c r="M12" s="30"/>
+      <c r="N12" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="O11" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="B12" s="38" t="s">
+      <c r="O12" s="29" t="s">
         <v>78</v>
-      </c>
-      <c r="C12" s="34" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="34" t="n">
-        <v>2</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>79</v>
-      </c>
-      <c r="H12" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" s="0"/>
-      <c r="J12" s="34" t="n">
-        <v>10</v>
-      </c>
-      <c r="K12" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="L12" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="36" t="n">
-        <v>3</v>
-      </c>
-      <c r="O12" s="33" t="s">
-        <v>63</v>
       </c>
       <c r="Q12" s="43"/>
       <c r="R12" s="43"/>
@@ -1856,7 +1842,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C13" s="27" t="n">
         <v>20</v>
@@ -1865,72 +1851,72 @@
         <v>3</v>
       </c>
       <c r="E13" s="22"/>
-      <c r="F13" s="27" t="n">
+      <c r="F13" s="33" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="H13" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" s="0"/>
+      <c r="J13" s="33" t="n">
+        <v>10</v>
+      </c>
+      <c r="K13" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="L13" s="33" t="n">
+        <v>4</v>
+      </c>
+      <c r="M13" s="30"/>
+      <c r="N13" s="37" t="n">
         <v>3</v>
       </c>
-      <c r="G13" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H13" s="27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" s="0"/>
-      <c r="J13" s="27" t="n">
-        <v>11</v>
-      </c>
-      <c r="K13" s="29" t="s">
-        <v>83</v>
-      </c>
-      <c r="L13" s="27" t="n">
-        <v>4</v>
-      </c>
-      <c r="M13" s="35"/>
-      <c r="N13" s="30" t="n">
-        <v>3</v>
-      </c>
-      <c r="O13" s="29" t="s">
-        <v>54</v>
+      <c r="O13" s="36" t="s">
+        <v>63</v>
       </c>
       <c r="Q13" s="44"/>
       <c r="R13" s="44"/>
     </row>
     <row r="14" customFormat="false" ht="17" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="n">
+      <c r="A14" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="33" t="n">
+        <v>45</v>
+      </c>
+      <c r="D14" s="33" t="n">
+        <v>1</v>
+      </c>
+      <c r="F14" s="27" t="n">
+        <v>3</v>
+      </c>
+      <c r="G14" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="H14" s="27" t="n">
+        <v>2</v>
+      </c>
+      <c r="I14" s="0"/>
+      <c r="J14" s="27" t="n">
+        <v>11</v>
+      </c>
+      <c r="K14" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="34" t="n">
-        <v>45</v>
-      </c>
-      <c r="D14" s="34" t="n">
-        <v>1</v>
-      </c>
-      <c r="F14" s="34" t="n">
+      <c r="L14" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="G14" s="38" t="s">
-        <v>85</v>
-      </c>
-      <c r="H14" s="34" t="n">
+      <c r="N14" s="31" t="n">
         <v>3</v>
       </c>
-      <c r="I14" s="0"/>
-      <c r="J14" s="34" t="n">
-        <v>12</v>
-      </c>
-      <c r="K14" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="34" t="n">
-        <v>4</v>
-      </c>
-      <c r="N14" s="36" t="n">
-        <v>4</v>
-      </c>
-      <c r="O14" s="33" t="s">
-        <v>59</v>
+      <c r="O14" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="Q14" s="45"/>
       <c r="R14" s="45"/>
@@ -1941,30 +1927,30 @@
       <c r="C15" s="0"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
-      <c r="F15" s="27" t="n">
-        <v>5</v>
-      </c>
-      <c r="G15" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="27" t="n">
+      <c r="F15" s="33" t="n">
         <v>4</v>
       </c>
+      <c r="G15" s="34" t="s">
+        <v>85</v>
+      </c>
+      <c r="H15" s="33" t="n">
+        <v>3</v>
+      </c>
       <c r="I15" s="0"/>
-      <c r="J15" s="27" t="n">
-        <v>13</v>
-      </c>
-      <c r="K15" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L15" s="27" t="n">
+      <c r="J15" s="33" t="n">
+        <v>12</v>
+      </c>
+      <c r="K15" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="L15" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="N15" s="30" t="n">
+      <c r="N15" s="37" t="n">
         <v>4</v>
       </c>
-      <c r="O15" s="29" t="s">
-        <v>89</v>
+      <c r="O15" s="36" t="s">
+        <v>60</v>
       </c>
       <c r="Q15" s="45"/>
       <c r="R15" s="45"/>
@@ -1975,24 +1961,30 @@
       <c r="C16" s="0"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="0"/>
+      <c r="F16" s="27" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="H16" s="27" t="n">
+        <v>4</v>
+      </c>
       <c r="I16" s="0"/>
-      <c r="J16" s="34" t="n">
-        <v>14</v>
-      </c>
-      <c r="K16" s="33" t="s">
-        <v>90</v>
-      </c>
-      <c r="L16" s="34" t="n">
+      <c r="J16" s="27" t="n">
+        <v>13</v>
+      </c>
+      <c r="K16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L16" s="27" t="n">
         <v>4</v>
       </c>
-      <c r="N16" s="36" t="n">
+      <c r="N16" s="31" t="n">
         <v>4</v>
       </c>
-      <c r="O16" s="33" t="s">
-        <v>91</v>
+      <c r="O16" s="29" t="s">
+        <v>89</v>
       </c>
       <c r="Q16" s="45"/>
       <c r="R16" s="45"/>
@@ -2007,17 +1999,21 @@
       <c r="G17" s="44"/>
       <c r="H17" s="0"/>
       <c r="I17" s="0"/>
-      <c r="J17" s="27" t="n">
-        <v>15</v>
-      </c>
-      <c r="K17" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" s="27" t="n">
+      <c r="J17" s="33" t="n">
+        <v>14</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>90</v>
+      </c>
+      <c r="L17" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="N17" s="0"/>
-      <c r="O17" s="0"/>
+      <c r="N17" s="37" t="n">
+        <v>4</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>91</v>
+      </c>
       <c r="Q17" s="45"/>
       <c r="R17" s="45"/>
     </row>
@@ -2031,14 +2027,14 @@
       <c r="G18" s="44"/>
       <c r="H18" s="0"/>
       <c r="I18" s="0"/>
-      <c r="J18" s="34" t="n">
-        <v>16</v>
-      </c>
-      <c r="K18" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="L18" s="34" t="n">
-        <v>5</v>
+      <c r="J18" s="27" t="n">
+        <v>15</v>
+      </c>
+      <c r="K18" s="29" t="s">
+        <v>92</v>
+      </c>
+      <c r="L18" s="27" t="n">
+        <v>4</v>
       </c>
       <c r="N18" s="0"/>
       <c r="O18" s="0"/>
@@ -2053,13 +2049,13 @@
       <c r="G19" s="44"/>
       <c r="H19" s="0"/>
       <c r="I19" s="0"/>
-      <c r="J19" s="27" t="n">
-        <v>17</v>
-      </c>
-      <c r="K19" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="27" t="n">
+      <c r="J19" s="33" t="n">
+        <v>16</v>
+      </c>
+      <c r="K19" s="36" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="33" t="n">
         <v>5</v>
       </c>
       <c r="N19" s="0"/>
@@ -2075,13 +2071,13 @@
       <c r="G20" s="45"/>
       <c r="H20" s="0"/>
       <c r="I20" s="0"/>
-      <c r="J20" s="34" t="n">
-        <v>18</v>
-      </c>
-      <c r="K20" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="L20" s="34" t="n">
+      <c r="J20" s="27" t="n">
+        <v>17</v>
+      </c>
+      <c r="K20" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L20" s="27" t="n">
         <v>5</v>
       </c>
       <c r="N20" s="0"/>
@@ -2097,8 +2093,15 @@
       <c r="G21" s="45"/>
       <c r="H21" s="0"/>
       <c r="I21" s="0"/>
-      <c r="J21" s="0"/>
-      <c r="K21" s="0"/>
+      <c r="J21" s="33" t="n">
+        <v>18</v>
+      </c>
+      <c r="K21" s="36" t="s">
+        <v>95</v>
+      </c>
+      <c r="L21" s="33" t="n">
+        <v>5</v>
+      </c>
       <c r="N21" s="0"/>
       <c r="O21" s="0"/>
     </row>
@@ -2322,12 +2325,12 @@
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="A1:C2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="J1:L1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="Q1:R1"/>
+    <mergeCell ref="F1:G2"/>
+    <mergeCell ref="J1:L2"/>
+    <mergeCell ref="N1:O2"/>
+    <mergeCell ref="Q1:R2"/>
     <mergeCell ref="A8:D9"/>
-    <mergeCell ref="F8:H9"/>
+    <mergeCell ref="F9:H10"/>
     <mergeCell ref="Q12:R12"/>
     <mergeCell ref="F17:G18"/>
   </mergeCells>
